--- a/PhieuVanDap_Chuyen de ung dung Web 1.xlsx
+++ b/PhieuVanDap_Chuyen de ung dung Web 1.xlsx
@@ -462,13 +462,13 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="0.0"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
+    <numFmt numFmtId="179" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
+    <numFmt numFmtId="180" formatCode="0.0"/>
   </numFmts>
-  <fonts count="30">
+  <fonts count="29">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -538,45 +538,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -605,6 +582,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -617,6 +601,22 @@
       <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -636,10 +636,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -651,16 +652,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -675,20 +675,13 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -703,43 +696,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -751,7 +720,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -775,13 +750,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -799,13 +774,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -829,7 +804,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -847,13 +822,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -865,13 +840,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -883,7 +870,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -949,26 +936,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -984,6 +951,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -995,6 +971,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1017,180 +1017,167 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
-      <top/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="179" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="180" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="12" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="28" fillId="25" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="29" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1246,7 +1233,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1269,7 +1256,7 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1284,7 +1271,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1311,13 +1298,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1331,7 +1318,7 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="178" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="180" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1706,8 +1693,8 @@
   <sheetPr/>
   <dimension ref="A1:P220"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" topLeftCell="A160" workbookViewId="0">
-      <selection activeCell="P160" sqref="P160"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1798,7 +1785,7 @@
     <row r="6" spans="2:9">
       <c r="B6" s="7" t="str">
         <f>SUM(J12:J18,J21:J22,J25:J29,J32:J34,J37:J39,J42:J45,J48:J50,J53:J54,J57:J58,J61:J63,J66:J68,J71:J72,J75:J77,J80:J82,J86:J88,J92:J99,J102:J110,J113:J121,J124:J127,J130:J138,J141:J149,J152:J160,J163:J171,J174:J182,J185:J193,J196:J204,J207:J214)&amp;"/100"</f>
-        <v>59/100</v>
+        <v>89,5/100</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -1922,7 +1909,9 @@
         <v>0.5</v>
       </c>
       <c r="I15" s="28"/>
-      <c r="J15" s="15"/>
+      <c r="J15" s="15">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="16" ht="18" spans="1:10">
       <c r="A16" s="15">
@@ -1940,7 +1929,9 @@
         <v>0.5</v>
       </c>
       <c r="I16" s="28"/>
-      <c r="J16" s="15"/>
+      <c r="J16" s="15">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="17" ht="18" spans="1:10">
       <c r="A17" s="15">
@@ -2232,7 +2223,9 @@
         <v>0.5</v>
       </c>
       <c r="I32" s="28"/>
-      <c r="J32" s="15"/>
+      <c r="J32" s="15">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="33" ht="18" spans="1:10">
       <c r="A33" s="15">
@@ -2250,7 +2243,9 @@
         <v>1</v>
       </c>
       <c r="I33" s="28"/>
-      <c r="J33" s="15"/>
+      <c r="J33" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="34" ht="18" spans="1:10">
       <c r="A34" s="15">
@@ -2268,7 +2263,9 @@
         <v>1</v>
       </c>
       <c r="I34" s="28"/>
-      <c r="J34" s="15"/>
+      <c r="J34" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="35" ht="18" spans="1:10">
       <c r="A35" s="20" t="s">
@@ -2454,7 +2451,9 @@
         <v>0.5</v>
       </c>
       <c r="I44" s="28"/>
-      <c r="J44" s="15"/>
+      <c r="J44" s="15">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="45" ht="18" spans="1:10">
       <c r="A45" s="15">
@@ -2694,7 +2693,9 @@
         <v>1</v>
       </c>
       <c r="I57" s="28"/>
-      <c r="J57" s="15"/>
+      <c r="J57" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="58" ht="18" spans="1:10">
       <c r="A58" s="15">
@@ -2712,7 +2713,9 @@
         <v>1.5</v>
       </c>
       <c r="I58" s="28"/>
-      <c r="J58" s="15"/>
+      <c r="J58" s="15">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="59" ht="18" spans="1:10">
       <c r="A59" s="20" t="s">
@@ -2764,7 +2767,9 @@
         <v>1</v>
       </c>
       <c r="I61" s="28"/>
-      <c r="J61" s="15"/>
+      <c r="J61" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="62" ht="18" spans="1:10">
       <c r="A62" s="15">
@@ -2782,7 +2787,9 @@
         <v>1</v>
       </c>
       <c r="I62" s="28"/>
-      <c r="J62" s="15"/>
+      <c r="J62" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="63" ht="18" spans="1:10">
       <c r="A63" s="15">
@@ -2800,7 +2807,9 @@
         <v>0.5</v>
       </c>
       <c r="I63" s="28"/>
-      <c r="J63" s="15"/>
+      <c r="J63" s="15">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="64" ht="18" spans="1:10">
       <c r="A64" s="20" t="s">
@@ -2852,7 +2861,9 @@
         <v>1</v>
       </c>
       <c r="I66" s="28"/>
-      <c r="J66" s="15"/>
+      <c r="J66" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="67" ht="18" spans="1:10">
       <c r="A67" s="15">
@@ -2870,7 +2881,9 @@
         <v>1</v>
       </c>
       <c r="I67" s="28"/>
-      <c r="J67" s="15"/>
+      <c r="J67" s="15">
+        <v>1</v>
+      </c>
     </row>
     <row r="68" ht="18" spans="1:10">
       <c r="A68" s="15">
@@ -2888,7 +2901,9 @@
         <v>0.5</v>
       </c>
       <c r="I68" s="28"/>
-      <c r="J68" s="15"/>
+      <c r="J68" s="15">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="69" ht="18" spans="1:10">
       <c r="A69" s="20" t="s">
@@ -4628,7 +4643,9 @@
         <v>0.5</v>
       </c>
       <c r="I163" s="53"/>
-      <c r="J163" s="38"/>
+      <c r="J163" s="38">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="164" ht="18" spans="1:10">
       <c r="A164" s="38">
@@ -4646,7 +4663,9 @@
         <v>0.5</v>
       </c>
       <c r="I164" s="53"/>
-      <c r="J164" s="38"/>
+      <c r="J164" s="38">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="165" ht="18" spans="1:10">
       <c r="A165" s="38">
@@ -4664,7 +4683,9 @@
         <v>1.5</v>
       </c>
       <c r="I165" s="53"/>
-      <c r="J165" s="38"/>
+      <c r="J165" s="38">
+        <v>1</v>
+      </c>
     </row>
     <row r="166" ht="18" spans="1:10">
       <c r="A166" s="38">
@@ -4682,7 +4703,9 @@
         <v>0.5</v>
       </c>
       <c r="I166" s="53"/>
-      <c r="J166" s="38"/>
+      <c r="J166" s="38">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="167" ht="18" spans="1:10">
       <c r="A167" s="38">
@@ -4700,7 +4723,9 @@
         <v>0.5</v>
       </c>
       <c r="I167" s="53"/>
-      <c r="J167" s="38"/>
+      <c r="J167" s="38">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="168" ht="18" spans="1:10">
       <c r="A168" s="38">
@@ -4718,7 +4743,9 @@
         <v>0.5</v>
       </c>
       <c r="I168" s="53"/>
-      <c r="J168" s="38"/>
+      <c r="J168" s="38">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="169" ht="18" spans="1:10">
       <c r="A169" s="38">
@@ -4736,7 +4763,9 @@
         <v>0.5</v>
       </c>
       <c r="I169" s="53"/>
-      <c r="J169" s="38"/>
+      <c r="J169" s="38">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="170" ht="18" spans="1:10">
       <c r="A170" s="38">
@@ -4754,7 +4783,9 @@
         <v>0.5</v>
       </c>
       <c r="I170" s="53"/>
-      <c r="J170" s="38"/>
+      <c r="J170" s="38">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="171" ht="18" spans="1:10">
       <c r="A171" s="38">
@@ -4772,7 +4803,9 @@
         <v>0.5</v>
       </c>
       <c r="I171" s="53"/>
-      <c r="J171" s="38"/>
+      <c r="J171" s="38">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="172" ht="17.4" spans="1:1">
       <c r="A172" s="9" t="s">
@@ -4815,7 +4848,9 @@
         <v>0.5</v>
       </c>
       <c r="I174" s="50"/>
-      <c r="J174" s="38"/>
+      <c r="J174" s="38">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="175" ht="18" spans="1:10">
       <c r="A175" s="38">
@@ -4833,7 +4868,9 @@
         <v>0.5</v>
       </c>
       <c r="I175" s="50"/>
-      <c r="J175" s="38"/>
+      <c r="J175" s="38">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="176" ht="18" spans="1:10">
       <c r="A176" s="38">
@@ -4851,7 +4888,9 @@
         <v>1</v>
       </c>
       <c r="I176" s="50"/>
-      <c r="J176" s="38"/>
+      <c r="J176" s="38">
+        <v>1</v>
+      </c>
     </row>
     <row r="177" ht="18" spans="1:10">
       <c r="A177" s="38">
@@ -4869,7 +4908,9 @@
         <v>1</v>
       </c>
       <c r="I177" s="50"/>
-      <c r="J177" s="38"/>
+      <c r="J177" s="38">
+        <v>1</v>
+      </c>
     </row>
     <row r="178" ht="18" spans="1:10">
       <c r="A178" s="38">
@@ -4887,7 +4928,9 @@
         <v>0.5</v>
       </c>
       <c r="I178" s="50"/>
-      <c r="J178" s="38"/>
+      <c r="J178" s="38">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="179" ht="18" spans="1:10">
       <c r="A179" s="38">
@@ -4905,7 +4948,9 @@
         <v>0.5</v>
       </c>
       <c r="I179" s="50"/>
-      <c r="J179" s="38"/>
+      <c r="J179" s="38">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="180" ht="18" spans="1:10">
       <c r="A180" s="38">
@@ -4923,7 +4968,9 @@
         <v>0.5</v>
       </c>
       <c r="I180" s="50"/>
-      <c r="J180" s="38"/>
+      <c r="J180" s="38">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="181" ht="18" spans="1:10">
       <c r="A181" s="38">
@@ -4941,7 +4988,9 @@
         <v>0.5</v>
       </c>
       <c r="I181" s="50"/>
-      <c r="J181" s="38"/>
+      <c r="J181" s="38">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="182" ht="18" spans="1:10">
       <c r="A182" s="38">
@@ -4959,7 +5008,9 @@
         <v>0.5</v>
       </c>
       <c r="I182" s="50"/>
-      <c r="J182" s="38"/>
+      <c r="J182" s="38">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="183" ht="17.4" spans="1:1">
       <c r="A183" s="9" t="s">
@@ -5002,7 +5053,9 @@
         <v>0.5</v>
       </c>
       <c r="I185" s="38"/>
-      <c r="J185" s="38"/>
+      <c r="J185" s="38">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="186" ht="18" spans="1:10">
       <c r="A186" s="38">
@@ -5020,7 +5073,9 @@
         <v>0.5</v>
       </c>
       <c r="I186" s="38"/>
-      <c r="J186" s="38"/>
+      <c r="J186" s="38">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="187" ht="18" spans="1:10">
       <c r="A187" s="38">
@@ -5038,7 +5093,9 @@
         <v>0.5</v>
       </c>
       <c r="I187" s="38"/>
-      <c r="J187" s="38"/>
+      <c r="J187" s="38">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="188" ht="18" spans="1:10">
       <c r="A188" s="38">
@@ -5056,7 +5113,9 @@
         <v>0.5</v>
       </c>
       <c r="I188" s="38"/>
-      <c r="J188" s="38"/>
+      <c r="J188" s="38">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="189" ht="18" spans="1:10">
       <c r="A189" s="38">
@@ -5074,7 +5133,9 @@
         <v>0.5</v>
       </c>
       <c r="I189" s="38"/>
-      <c r="J189" s="38"/>
+      <c r="J189" s="38">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="190" ht="18" spans="1:10">
       <c r="A190" s="38">
@@ -5092,7 +5153,9 @@
         <v>0.5</v>
       </c>
       <c r="I190" s="38"/>
-      <c r="J190" s="38"/>
+      <c r="J190" s="38">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="191" ht="18" spans="1:10">
       <c r="A191" s="38">
@@ -5110,7 +5173,9 @@
         <v>0.5</v>
       </c>
       <c r="I191" s="38"/>
-      <c r="J191" s="38"/>
+      <c r="J191" s="38">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="192" ht="18" spans="1:10">
       <c r="A192" s="38">
@@ -5128,7 +5193,9 @@
         <v>0.5</v>
       </c>
       <c r="I192" s="38"/>
-      <c r="J192" s="38"/>
+      <c r="J192" s="38">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="193" ht="18" spans="1:10">
       <c r="A193" s="38">
@@ -5146,7 +5213,9 @@
         <v>0.5</v>
       </c>
       <c r="I193" s="38"/>
-      <c r="J193" s="38"/>
+      <c r="J193" s="38">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="194" ht="17.4" spans="1:1">
       <c r="A194" s="9" t="s">
@@ -5189,7 +5258,9 @@
         <v>0.5</v>
       </c>
       <c r="I196" s="38"/>
-      <c r="J196" s="38"/>
+      <c r="J196" s="38">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="197" ht="18" spans="1:10">
       <c r="A197" s="38">
@@ -5207,7 +5278,9 @@
         <v>0.5</v>
       </c>
       <c r="I197" s="38"/>
-      <c r="J197" s="38"/>
+      <c r="J197" s="38">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="198" ht="18" spans="1:10">
       <c r="A198" s="38">
@@ -5261,7 +5334,9 @@
         <v>0.5</v>
       </c>
       <c r="I200" s="38"/>
-      <c r="J200" s="38"/>
+      <c r="J200" s="38">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="201" ht="18" spans="1:10">
       <c r="A201" s="38">
@@ -5279,7 +5354,9 @@
         <v>0.5</v>
       </c>
       <c r="I201" s="38"/>
-      <c r="J201" s="38"/>
+      <c r="J201" s="38">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="202" ht="18" spans="1:10">
       <c r="A202" s="38">
@@ -5297,7 +5374,9 @@
         <v>0.5</v>
       </c>
       <c r="I202" s="38"/>
-      <c r="J202" s="38"/>
+      <c r="J202" s="38">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="203" ht="18" spans="1:10">
       <c r="A203" s="38">
@@ -5315,7 +5394,9 @@
         <v>0.5</v>
       </c>
       <c r="I203" s="38"/>
-      <c r="J203" s="38"/>
+      <c r="J203" s="38">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="204" ht="18" spans="1:10">
       <c r="A204" s="38">
@@ -5333,7 +5414,9 @@
         <v>0.5</v>
       </c>
       <c r="I204" s="38"/>
-      <c r="J204" s="38"/>
+      <c r="J204" s="38">
+        <v>0</v>
+      </c>
     </row>
     <row r="205" ht="17.4" spans="1:1">
       <c r="A205" s="9" t="s">
@@ -5376,7 +5459,9 @@
         <v>0.5</v>
       </c>
       <c r="I207" s="67"/>
-      <c r="J207" s="38"/>
+      <c r="J207" s="38">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="208" ht="18" spans="1:10">
       <c r="A208" s="38">
@@ -5394,7 +5479,9 @@
         <v>0.5</v>
       </c>
       <c r="I208" s="53"/>
-      <c r="J208" s="38"/>
+      <c r="J208" s="38">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="209" ht="18" spans="1:10">
       <c r="A209" s="38">

--- a/PhieuVanDap_Chuyen de ung dung Web 1.xlsx
+++ b/PhieuVanDap_Chuyen de ung dung Web 1.xlsx
@@ -20,10 +20,10 @@
 MÔN CHUYÊN ĐỀ ỨNG DỤNG WEB 1</t>
   </si>
   <si>
-    <t>Mã sinh viên:……………………………….</t>
-  </si>
-  <si>
-    <t>Họ tên:……………………………………</t>
+    <t>Mã sinh viên: 2121110034……………………………….</t>
+  </si>
+  <si>
+    <t>Họ tên: Trương Sỹ Hoàng……………………………………</t>
   </si>
   <si>
     <r>
@@ -105,7 +105,7 @@
     </r>
   </si>
   <si>
-    <t>Điện thoại:………………………………….</t>
+    <t>Điện thoại: 0918146697………………………………….</t>
   </si>
   <si>
     <t>Ngày:……………………………………..</t>
@@ -462,11 +462,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
-    <numFmt numFmtId="179" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
-    <numFmt numFmtId="180" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="_-* #,##0\ &quot;₫&quot;_-;\-* #,##0\ &quot;₫&quot;_-;_-* &quot;-&quot;\ &quot;₫&quot;_-;_-@_-"/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="179" formatCode="0.0"/>
+    <numFmt numFmtId="180" formatCode="_-* #,##0.00\ &quot;₫&quot;_-;\-* #,##0.00\ &quot;₫&quot;_-;_-* &quot;-&quot;??\ &quot;₫&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="29">
     <font>
@@ -538,7 +538,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -552,38 +566,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -597,26 +582,18 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -636,8 +613,31 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
       <charset val="134"/>
@@ -653,14 +653,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -696,7 +696,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -708,19 +708,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -732,13 +720,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -750,49 +762,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -810,13 +792,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -828,31 +804,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -864,13 +840,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -936,6 +936,30 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -951,15 +975,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -971,21 +986,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1036,7 +1036,10 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1045,145 +1048,144 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="180" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="13" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="23" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="22" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1233,7 +1235,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1253,10 +1255,17 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1271,7 +1280,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1298,13 +1307,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1313,17 +1322,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="179" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="180" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1366,10 +1376,10 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1694,7 +1704,7 @@
   <dimension ref="A1:P220"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1733,7 +1743,7 @@
       <c r="G2" s="4"/>
       <c r="H2" s="4"/>
       <c r="I2" s="4"/>
-      <c r="J2" s="4"/>
+      <c r="J2" s="27"/>
     </row>
     <row r="3" ht="22.8" customHeight="1" spans="1:10">
       <c r="A3" s="4" t="s">
@@ -1749,7 +1759,7 @@
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
+      <c r="J3" s="27"/>
     </row>
     <row r="4" ht="22.8" customHeight="1" spans="1:10">
       <c r="A4" s="4" t="s">
@@ -1765,7 +1775,7 @@
       <c r="G4" s="4"/>
       <c r="H4" s="4"/>
       <c r="I4" s="4"/>
-      <c r="J4" s="4"/>
+      <c r="J4" s="27"/>
     </row>
     <row r="5" ht="16.8" spans="2:10">
       <c r="B5" s="5" t="s">
@@ -1780,12 +1790,12 @@
       <c r="G5" s="5"/>
       <c r="H5" s="5"/>
       <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
+      <c r="J5" s="28"/>
     </row>
     <row r="6" spans="2:9">
       <c r="B6" s="7" t="str">
-        <f>SUM(J12:J18,J21:J22,J25:J29,J32:J34,J37:J39,J42:J45,J48:J50,J53:J54,J57:J58,J61:J63,J66:J68,J71:J72,J75:J77,J80:J82,J86:J88,J92:J99,J102:J110,J113:J121,J124:J127,J130:J138,J141:J149,J152:J160,J163:J171,J174:J182,J185:J193,J196:J204,J207:J214)&amp;"/100"</f>
-        <v>89,5/100</v>
+        <f>SUM(J12:J18,J21:J22,J25:J29,J32:J34,J37:J39,J42:J45,J48:J50,J53:J54,J57:J58,J61:J63,J66:J68,J71:J72,J75:J77,J80:J82,J86:J88,J91:J99,J102:J110,J113:J121,J124:J127,J130:J138,J141:J149,J152:J160,J163:J171,J174:J182,J185:J193,J196:J204,J207:J214)&amp;"/100"</f>
+        <v>96/100</v>
       </c>
       <c r="C6" s="7"/>
       <c r="D6" s="7"/>
@@ -1815,7 +1825,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" ht="17.4" spans="1:10">
+    <row r="11" ht="17.4" spans="1:12">
       <c r="A11" s="10" t="s">
         <v>10</v>
       </c>
@@ -1830,12 +1840,13 @@
       <c r="H11" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="27"/>
+      <c r="I11" s="29"/>
       <c r="J11" s="10" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" ht="18" spans="1:10">
+      <c r="L11" s="30"/>
+    </row>
+    <row r="12" ht="18" spans="1:12">
       <c r="A12" s="15">
         <v>1</v>
       </c>
@@ -1850,12 +1861,13 @@
       <c r="H12" s="19">
         <v>1.5</v>
       </c>
-      <c r="I12" s="28"/>
+      <c r="I12" s="31"/>
       <c r="J12" s="15">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="13" ht="18" spans="1:10">
+      <c r="L12" s="30"/>
+    </row>
+    <row r="13" ht="18" spans="1:12">
       <c r="A13" s="15">
         <v>2</v>
       </c>
@@ -1870,10 +1882,11 @@
       <c r="H13" s="19">
         <v>0.5</v>
       </c>
-      <c r="I13" s="28"/>
+      <c r="I13" s="31"/>
       <c r="J13" s="15">
         <v>0.5</v>
       </c>
+      <c r="L13" s="30"/>
     </row>
     <row r="14" ht="18" spans="1:10">
       <c r="A14" s="15">
@@ -1890,7 +1903,7 @@
       <c r="H14" s="19">
         <v>0.5</v>
       </c>
-      <c r="I14" s="28"/>
+      <c r="I14" s="31"/>
       <c r="J14" s="15"/>
     </row>
     <row r="15" ht="18" spans="1:10">
@@ -1908,7 +1921,7 @@
       <c r="H15" s="19">
         <v>0.5</v>
       </c>
-      <c r="I15" s="28"/>
+      <c r="I15" s="31"/>
       <c r="J15" s="15">
         <v>0.5</v>
       </c>
@@ -1928,7 +1941,7 @@
       <c r="H16" s="19">
         <v>0.5</v>
       </c>
-      <c r="I16" s="28"/>
+      <c r="I16" s="31"/>
       <c r="J16" s="15">
         <v>0.5</v>
       </c>
@@ -1948,7 +1961,7 @@
       <c r="H17" s="19">
         <v>0.5</v>
       </c>
-      <c r="I17" s="28"/>
+      <c r="I17" s="31"/>
       <c r="J17" s="15">
         <v>0.5</v>
       </c>
@@ -1968,7 +1981,7 @@
       <c r="H18" s="19">
         <v>1</v>
       </c>
-      <c r="I18" s="28"/>
+      <c r="I18" s="31"/>
       <c r="J18" s="15">
         <v>0.5</v>
       </c>
@@ -1985,7 +1998,7 @@
       <c r="G19" s="21"/>
       <c r="H19" s="21"/>
       <c r="I19" s="21"/>
-      <c r="J19" s="21"/>
+      <c r="J19" s="27"/>
     </row>
     <row r="20" ht="17.4" spans="1:10">
       <c r="A20" s="10" t="s">
@@ -2002,7 +2015,7 @@
       <c r="H20" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="I20" s="27"/>
+      <c r="I20" s="29"/>
       <c r="J20" s="10" t="s">
         <v>13</v>
       </c>
@@ -2022,7 +2035,7 @@
       <c r="H21" s="19">
         <v>1.5</v>
       </c>
-      <c r="I21" s="28"/>
+      <c r="I21" s="31"/>
       <c r="J21" s="15">
         <v>1.5</v>
       </c>
@@ -2042,7 +2055,7 @@
       <c r="H22" s="19">
         <v>1</v>
       </c>
-      <c r="I22" s="28"/>
+      <c r="I22" s="31"/>
       <c r="J22" s="15">
         <v>1</v>
       </c>
@@ -2059,7 +2072,7 @@
       <c r="G23" s="21"/>
       <c r="H23" s="21"/>
       <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
+      <c r="J23" s="27"/>
     </row>
     <row r="24" ht="17.4" spans="1:10">
       <c r="A24" s="10" t="s">
@@ -2076,7 +2089,7 @@
       <c r="H24" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="I24" s="27"/>
+      <c r="I24" s="29"/>
       <c r="J24" s="10" t="s">
         <v>13</v>
       </c>
@@ -2096,7 +2109,7 @@
       <c r="H25" s="19">
         <v>0.5</v>
       </c>
-      <c r="I25" s="28"/>
+      <c r="I25" s="31"/>
       <c r="J25" s="15">
         <v>0.5</v>
       </c>
@@ -2116,8 +2129,10 @@
       <c r="H26" s="19">
         <v>0.5</v>
       </c>
-      <c r="I26" s="28"/>
-      <c r="J26" s="15"/>
+      <c r="I26" s="31"/>
+      <c r="J26" s="15">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="27" ht="18" spans="1:10">
       <c r="A27" s="15">
@@ -2134,8 +2149,10 @@
       <c r="H27" s="19">
         <v>0.5</v>
       </c>
-      <c r="I27" s="28"/>
-      <c r="J27" s="15"/>
+      <c r="I27" s="31"/>
+      <c r="J27" s="15">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="28" ht="18" spans="1:10">
       <c r="A28" s="15">
@@ -2152,8 +2169,10 @@
       <c r="H28" s="19">
         <v>0.5</v>
       </c>
-      <c r="I28" s="28"/>
-      <c r="J28" s="15"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="15">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="29" ht="18" spans="1:10">
       <c r="A29" s="15">
@@ -2170,8 +2189,10 @@
       <c r="H29" s="19">
         <v>0.5</v>
       </c>
-      <c r="I29" s="28"/>
-      <c r="J29" s="15"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="15">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="30" ht="18" spans="1:10">
       <c r="A30" s="20" t="s">
@@ -2185,7 +2206,7 @@
       <c r="G30" s="21"/>
       <c r="H30" s="21"/>
       <c r="I30" s="21"/>
-      <c r="J30" s="21"/>
+      <c r="J30" s="27"/>
     </row>
     <row r="31" ht="17.4" spans="1:10">
       <c r="A31" s="10" t="s">
@@ -2202,7 +2223,7 @@
       <c r="H31" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="I31" s="27"/>
+      <c r="I31" s="29"/>
       <c r="J31" s="10" t="s">
         <v>13</v>
       </c>
@@ -2222,7 +2243,7 @@
       <c r="H32" s="19">
         <v>0.5</v>
       </c>
-      <c r="I32" s="28"/>
+      <c r="I32" s="31"/>
       <c r="J32" s="15">
         <v>0.5</v>
       </c>
@@ -2242,7 +2263,7 @@
       <c r="H33" s="19">
         <v>1</v>
       </c>
-      <c r="I33" s="28"/>
+      <c r="I33" s="31"/>
       <c r="J33" s="15">
         <v>1</v>
       </c>
@@ -2262,7 +2283,7 @@
       <c r="H34" s="19">
         <v>1</v>
       </c>
-      <c r="I34" s="28"/>
+      <c r="I34" s="31"/>
       <c r="J34" s="15">
         <v>1</v>
       </c>
@@ -2279,7 +2300,7 @@
       <c r="G35" s="21"/>
       <c r="H35" s="21"/>
       <c r="I35" s="21"/>
-      <c r="J35" s="21"/>
+      <c r="J35" s="27"/>
     </row>
     <row r="36" ht="17.4" spans="1:10">
       <c r="A36" s="10" t="s">
@@ -2296,7 +2317,7 @@
       <c r="H36" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="I36" s="27"/>
+      <c r="I36" s="29"/>
       <c r="J36" s="10" t="s">
         <v>13</v>
       </c>
@@ -2316,7 +2337,7 @@
       <c r="H37" s="19">
         <v>0.5</v>
       </c>
-      <c r="I37" s="28"/>
+      <c r="I37" s="31"/>
       <c r="J37" s="15">
         <v>0.5</v>
       </c>
@@ -2336,7 +2357,7 @@
       <c r="H38" s="19">
         <v>1</v>
       </c>
-      <c r="I38" s="28"/>
+      <c r="I38" s="31"/>
       <c r="J38" s="15">
         <v>1</v>
       </c>
@@ -2356,7 +2377,7 @@
       <c r="H39" s="19">
         <v>1</v>
       </c>
-      <c r="I39" s="28"/>
+      <c r="I39" s="31"/>
       <c r="J39" s="15">
         <v>1</v>
       </c>
@@ -2373,7 +2394,7 @@
       <c r="G40" s="21"/>
       <c r="H40" s="21"/>
       <c r="I40" s="21"/>
-      <c r="J40" s="21"/>
+      <c r="J40" s="27"/>
     </row>
     <row r="41" ht="17.4" spans="1:10">
       <c r="A41" s="22" t="s">
@@ -2390,7 +2411,7 @@
       <c r="H41" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="I41" s="29"/>
+      <c r="I41" s="32"/>
       <c r="J41" s="22" t="s">
         <v>13</v>
       </c>
@@ -2410,7 +2431,7 @@
       <c r="H42" s="19">
         <v>1</v>
       </c>
-      <c r="I42" s="28"/>
+      <c r="I42" s="31"/>
       <c r="J42" s="15">
         <v>1</v>
       </c>
@@ -2430,7 +2451,7 @@
       <c r="H43" s="19">
         <v>1</v>
       </c>
-      <c r="I43" s="28"/>
+      <c r="I43" s="31"/>
       <c r="J43" s="15">
         <v>1</v>
       </c>
@@ -2450,7 +2471,7 @@
       <c r="H44" s="19">
         <v>0.5</v>
       </c>
-      <c r="I44" s="28"/>
+      <c r="I44" s="31"/>
       <c r="J44" s="15">
         <v>0.5</v>
       </c>
@@ -2470,10 +2491,8 @@
       <c r="H45" s="19">
         <v>0.5</v>
       </c>
-      <c r="I45" s="28"/>
-      <c r="J45" s="15">
-        <v>0.5</v>
-      </c>
+      <c r="I45" s="31"/>
+      <c r="J45" s="15"/>
     </row>
     <row r="46" ht="18" spans="1:10">
       <c r="A46" s="20" t="s">
@@ -2487,7 +2506,7 @@
       <c r="G46" s="21"/>
       <c r="H46" s="21"/>
       <c r="I46" s="21"/>
-      <c r="J46" s="21"/>
+      <c r="J46" s="27"/>
     </row>
     <row r="47" ht="17.4" spans="1:10">
       <c r="A47" s="10" t="s">
@@ -2504,7 +2523,7 @@
       <c r="H47" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="I47" s="27"/>
+      <c r="I47" s="29"/>
       <c r="J47" s="10" t="s">
         <v>13</v>
       </c>
@@ -2524,7 +2543,7 @@
       <c r="H48" s="19">
         <v>0.5</v>
       </c>
-      <c r="I48" s="28"/>
+      <c r="I48" s="31"/>
       <c r="J48" s="15">
         <v>0.5</v>
       </c>
@@ -2544,7 +2563,7 @@
       <c r="H49" s="19">
         <v>1</v>
       </c>
-      <c r="I49" s="28"/>
+      <c r="I49" s="31"/>
       <c r="J49" s="15">
         <v>1</v>
       </c>
@@ -2564,7 +2583,7 @@
       <c r="H50" s="19">
         <v>1</v>
       </c>
-      <c r="I50" s="28"/>
+      <c r="I50" s="31"/>
       <c r="J50" s="15">
         <v>1</v>
       </c>
@@ -2581,7 +2600,7 @@
       <c r="G51" s="21"/>
       <c r="H51" s="21"/>
       <c r="I51" s="21"/>
-      <c r="J51" s="21"/>
+      <c r="J51" s="27"/>
     </row>
     <row r="52" ht="17.4" spans="1:10">
       <c r="A52" s="10" t="s">
@@ -2598,7 +2617,7 @@
       <c r="H52" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="I52" s="27"/>
+      <c r="I52" s="29"/>
       <c r="J52" s="10" t="s">
         <v>13</v>
       </c>
@@ -2618,7 +2637,7 @@
       <c r="H53" s="19">
         <v>1</v>
       </c>
-      <c r="I53" s="28"/>
+      <c r="I53" s="31"/>
       <c r="J53" s="15">
         <v>1</v>
       </c>
@@ -2638,7 +2657,7 @@
       <c r="H54" s="19">
         <v>1.5</v>
       </c>
-      <c r="I54" s="28"/>
+      <c r="I54" s="31"/>
       <c r="J54" s="15">
         <v>1.5</v>
       </c>
@@ -2655,7 +2674,7 @@
       <c r="G55" s="21"/>
       <c r="H55" s="21"/>
       <c r="I55" s="21"/>
-      <c r="J55" s="21"/>
+      <c r="J55" s="27"/>
     </row>
     <row r="56" ht="17.4" spans="1:10">
       <c r="A56" s="10" t="s">
@@ -2672,7 +2691,7 @@
       <c r="H56" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="I56" s="27"/>
+      <c r="I56" s="29"/>
       <c r="J56" s="10" t="s">
         <v>13</v>
       </c>
@@ -2692,7 +2711,7 @@
       <c r="H57" s="19">
         <v>1</v>
       </c>
-      <c r="I57" s="28"/>
+      <c r="I57" s="31"/>
       <c r="J57" s="15">
         <v>1</v>
       </c>
@@ -2712,7 +2731,7 @@
       <c r="H58" s="19">
         <v>1.5</v>
       </c>
-      <c r="I58" s="28"/>
+      <c r="I58" s="31"/>
       <c r="J58" s="15">
         <v>1.5</v>
       </c>
@@ -2729,7 +2748,7 @@
       <c r="G59" s="21"/>
       <c r="H59" s="21"/>
       <c r="I59" s="21"/>
-      <c r="J59" s="21"/>
+      <c r="J59" s="27"/>
     </row>
     <row r="60" ht="17.4" spans="1:10">
       <c r="A60" s="10" t="s">
@@ -2746,7 +2765,7 @@
       <c r="H60" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="I60" s="27"/>
+      <c r="I60" s="29"/>
       <c r="J60" s="10" t="s">
         <v>13</v>
       </c>
@@ -2766,7 +2785,7 @@
       <c r="H61" s="19">
         <v>1</v>
       </c>
-      <c r="I61" s="28"/>
+      <c r="I61" s="31"/>
       <c r="J61" s="15">
         <v>1</v>
       </c>
@@ -2786,7 +2805,7 @@
       <c r="H62" s="19">
         <v>1</v>
       </c>
-      <c r="I62" s="28"/>
+      <c r="I62" s="31"/>
       <c r="J62" s="15">
         <v>1</v>
       </c>
@@ -2806,7 +2825,7 @@
       <c r="H63" s="19">
         <v>0.5</v>
       </c>
-      <c r="I63" s="28"/>
+      <c r="I63" s="31"/>
       <c r="J63" s="15">
         <v>0.5</v>
       </c>
@@ -2823,7 +2842,7 @@
       <c r="G64" s="21"/>
       <c r="H64" s="21"/>
       <c r="I64" s="21"/>
-      <c r="J64" s="21"/>
+      <c r="J64" s="27"/>
     </row>
     <row r="65" ht="17.4" spans="1:10">
       <c r="A65" s="10" t="s">
@@ -2840,7 +2859,7 @@
       <c r="H65" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="I65" s="27"/>
+      <c r="I65" s="29"/>
       <c r="J65" s="10" t="s">
         <v>13</v>
       </c>
@@ -2860,7 +2879,7 @@
       <c r="H66" s="19">
         <v>1</v>
       </c>
-      <c r="I66" s="28"/>
+      <c r="I66" s="31"/>
       <c r="J66" s="15">
         <v>1</v>
       </c>
@@ -2880,7 +2899,7 @@
       <c r="H67" s="19">
         <v>1</v>
       </c>
-      <c r="I67" s="28"/>
+      <c r="I67" s="31"/>
       <c r="J67" s="15">
         <v>1</v>
       </c>
@@ -2900,7 +2919,7 @@
       <c r="H68" s="19">
         <v>0.5</v>
       </c>
-      <c r="I68" s="28"/>
+      <c r="I68" s="31"/>
       <c r="J68" s="15">
         <v>0.5</v>
       </c>
@@ -2917,7 +2936,7 @@
       <c r="G69" s="21"/>
       <c r="H69" s="21"/>
       <c r="I69" s="21"/>
-      <c r="J69" s="21"/>
+      <c r="J69" s="27"/>
     </row>
     <row r="70" ht="17.4" spans="1:10">
       <c r="A70" s="10" t="s">
@@ -2934,7 +2953,7 @@
       <c r="H70" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="I70" s="27"/>
+      <c r="I70" s="29"/>
       <c r="J70" s="10" t="s">
         <v>13</v>
       </c>
@@ -2954,7 +2973,7 @@
       <c r="H71" s="19">
         <v>1</v>
       </c>
-      <c r="I71" s="28"/>
+      <c r="I71" s="31"/>
       <c r="J71" s="15"/>
     </row>
     <row r="72" ht="18" spans="1:10">
@@ -2972,7 +2991,7 @@
       <c r="H72" s="19">
         <v>1</v>
       </c>
-      <c r="I72" s="28"/>
+      <c r="I72" s="31"/>
       <c r="J72" s="15"/>
     </row>
     <row r="73" ht="18" spans="1:10">
@@ -2987,24 +3006,24 @@
       <c r="G73" s="21"/>
       <c r="H73" s="21"/>
       <c r="I73" s="21"/>
-      <c r="J73" s="21"/>
+      <c r="J73" s="27"/>
     </row>
     <row r="74" ht="17.4" spans="1:10">
       <c r="A74" s="10" t="s">
         <v>10</v>
       </c>
-      <c r="B74" s="30" t="s">
+      <c r="B74" s="33" t="s">
         <v>11</v>
       </c>
-      <c r="C74" s="30"/>
-      <c r="D74" s="30"/>
-      <c r="E74" s="30"/>
-      <c r="F74" s="30"/>
-      <c r="G74" s="30"/>
-      <c r="H74" s="31" t="s">
+      <c r="C74" s="33"/>
+      <c r="D74" s="33"/>
+      <c r="E74" s="33"/>
+      <c r="F74" s="33"/>
+      <c r="G74" s="33"/>
+      <c r="H74" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="I74" s="31"/>
+      <c r="I74" s="34"/>
       <c r="J74" s="10" t="s">
         <v>13</v>
       </c>
@@ -3013,18 +3032,18 @@
       <c r="A75" s="15">
         <v>1</v>
       </c>
-      <c r="B75" s="32" t="s">
+      <c r="B75" s="35" t="s">
         <v>58</v>
       </c>
-      <c r="C75" s="32"/>
-      <c r="D75" s="32"/>
-      <c r="E75" s="32"/>
-      <c r="F75" s="32"/>
-      <c r="G75" s="32"/>
-      <c r="H75" s="33">
-        <v>1</v>
-      </c>
-      <c r="I75" s="33"/>
+      <c r="C75" s="35"/>
+      <c r="D75" s="35"/>
+      <c r="E75" s="35"/>
+      <c r="F75" s="35"/>
+      <c r="G75" s="35"/>
+      <c r="H75" s="36">
+        <v>1</v>
+      </c>
+      <c r="I75" s="36"/>
       <c r="J75" s="15">
         <v>1</v>
       </c>
@@ -3033,18 +3052,18 @@
       <c r="A76" s="15">
         <v>2</v>
       </c>
-      <c r="B76" s="32" t="s">
+      <c r="B76" s="35" t="s">
         <v>59</v>
       </c>
-      <c r="C76" s="32"/>
-      <c r="D76" s="32"/>
-      <c r="E76" s="32"/>
-      <c r="F76" s="32"/>
-      <c r="G76" s="32"/>
-      <c r="H76" s="33">
-        <v>1</v>
-      </c>
-      <c r="I76" s="33"/>
+      <c r="C76" s="35"/>
+      <c r="D76" s="35"/>
+      <c r="E76" s="35"/>
+      <c r="F76" s="35"/>
+      <c r="G76" s="35"/>
+      <c r="H76" s="36">
+        <v>1</v>
+      </c>
+      <c r="I76" s="36"/>
       <c r="J76" s="15">
         <v>1</v>
       </c>
@@ -3053,19 +3072,19 @@
       <c r="A77" s="15">
         <v>3</v>
       </c>
-      <c r="B77" s="32" t="s">
+      <c r="B77" s="35" t="s">
         <v>60</v>
       </c>
-      <c r="C77" s="32"/>
-      <c r="D77" s="32"/>
-      <c r="E77" s="32"/>
-      <c r="F77" s="32"/>
-      <c r="G77" s="32"/>
+      <c r="C77" s="35"/>
+      <c r="D77" s="35"/>
+      <c r="E77" s="35"/>
+      <c r="F77" s="35"/>
+      <c r="G77" s="35"/>
       <c r="H77" s="19">
         <v>1</v>
       </c>
-      <c r="I77" s="28"/>
-      <c r="J77" s="47">
+      <c r="I77" s="31"/>
+      <c r="J77" s="15">
         <v>1</v>
       </c>
     </row>
@@ -3081,24 +3100,24 @@
       <c r="G78" s="21"/>
       <c r="H78" s="21"/>
       <c r="I78" s="21"/>
-      <c r="J78" s="21"/>
+      <c r="J78" s="27"/>
     </row>
     <row r="79" ht="17.4" spans="1:10">
       <c r="A79" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B79" s="34" t="s">
+      <c r="B79" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="C79" s="34"/>
-      <c r="D79" s="34"/>
-      <c r="E79" s="34"/>
-      <c r="F79" s="34"/>
-      <c r="G79" s="34"/>
-      <c r="H79" s="35" t="s">
+      <c r="C79" s="37"/>
+      <c r="D79" s="37"/>
+      <c r="E79" s="37"/>
+      <c r="F79" s="37"/>
+      <c r="G79" s="37"/>
+      <c r="H79" s="38" t="s">
         <v>12</v>
       </c>
-      <c r="I79" s="35"/>
+      <c r="I79" s="38"/>
       <c r="J79" s="22" t="s">
         <v>13</v>
       </c>
@@ -3107,18 +3126,18 @@
       <c r="A80" s="15">
         <v>1</v>
       </c>
-      <c r="B80" s="32" t="s">
+      <c r="B80" s="35" t="s">
         <v>62</v>
       </c>
-      <c r="C80" s="32"/>
-      <c r="D80" s="32"/>
-      <c r="E80" s="32"/>
-      <c r="F80" s="32"/>
-      <c r="G80" s="32"/>
-      <c r="H80" s="33">
-        <v>1</v>
-      </c>
-      <c r="I80" s="33"/>
+      <c r="C80" s="35"/>
+      <c r="D80" s="35"/>
+      <c r="E80" s="35"/>
+      <c r="F80" s="35"/>
+      <c r="G80" s="35"/>
+      <c r="H80" s="36">
+        <v>1</v>
+      </c>
+      <c r="I80" s="36"/>
       <c r="J80" s="15">
         <v>1</v>
       </c>
@@ -3127,18 +3146,18 @@
       <c r="A81" s="15">
         <v>2</v>
       </c>
-      <c r="B81" s="32" t="s">
+      <c r="B81" s="35" t="s">
         <v>63</v>
       </c>
-      <c r="C81" s="32"/>
-      <c r="D81" s="32"/>
-      <c r="E81" s="32"/>
-      <c r="F81" s="32"/>
-      <c r="G81" s="32"/>
-      <c r="H81" s="33">
-        <v>1</v>
-      </c>
-      <c r="I81" s="33"/>
+      <c r="C81" s="35"/>
+      <c r="D81" s="35"/>
+      <c r="E81" s="35"/>
+      <c r="F81" s="35"/>
+      <c r="G81" s="35"/>
+      <c r="H81" s="36">
+        <v>1</v>
+      </c>
+      <c r="I81" s="36"/>
       <c r="J81" s="15">
         <v>1</v>
       </c>
@@ -3147,19 +3166,19 @@
       <c r="A82" s="15">
         <v>3</v>
       </c>
-      <c r="B82" s="32" t="s">
+      <c r="B82" s="35" t="s">
         <v>64</v>
       </c>
-      <c r="C82" s="32"/>
-      <c r="D82" s="32"/>
-      <c r="E82" s="32"/>
-      <c r="F82" s="32"/>
-      <c r="G82" s="32"/>
+      <c r="C82" s="35"/>
+      <c r="D82" s="35"/>
+      <c r="E82" s="35"/>
+      <c r="F82" s="35"/>
+      <c r="G82" s="35"/>
       <c r="H82" s="19">
         <v>1</v>
       </c>
-      <c r="I82" s="28"/>
-      <c r="J82" s="47">
+      <c r="I82" s="31"/>
+      <c r="J82" s="15">
         <v>1</v>
       </c>
     </row>
@@ -3174,82 +3193,82 @@
       </c>
     </row>
     <row r="85" ht="17.4" spans="1:10">
-      <c r="A85" s="36" t="s">
+      <c r="A85" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B85" s="37" t="s">
+      <c r="B85" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C85" s="37"/>
-      <c r="D85" s="37"/>
-      <c r="E85" s="37"/>
-      <c r="F85" s="37"/>
-      <c r="G85" s="37"/>
-      <c r="H85" s="36" t="s">
+      <c r="C85" s="40"/>
+      <c r="D85" s="40"/>
+      <c r="E85" s="40"/>
+      <c r="F85" s="40"/>
+      <c r="G85" s="40"/>
+      <c r="H85" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="I85" s="36"/>
-      <c r="J85" s="48" t="s">
+      <c r="I85" s="39"/>
+      <c r="J85" s="39" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="86" ht="18" spans="1:10">
-      <c r="A86" s="38">
-        <v>1</v>
-      </c>
-      <c r="B86" s="39" t="s">
+      <c r="A86" s="41">
+        <v>1</v>
+      </c>
+      <c r="B86" s="42" t="s">
         <v>67</v>
       </c>
-      <c r="C86" s="39"/>
-      <c r="D86" s="39"/>
-      <c r="E86" s="39"/>
-      <c r="F86" s="39"/>
-      <c r="G86" s="39"/>
-      <c r="H86" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="I86" s="38"/>
-      <c r="J86" s="49">
+      <c r="C86" s="42"/>
+      <c r="D86" s="42"/>
+      <c r="E86" s="42"/>
+      <c r="F86" s="42"/>
+      <c r="G86" s="42"/>
+      <c r="H86" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="I86" s="41"/>
+      <c r="J86" s="50">
         <v>0.5</v>
       </c>
     </row>
     <row r="87" ht="18" spans="1:10">
-      <c r="A87" s="38">
+      <c r="A87" s="41">
         <v>2</v>
       </c>
-      <c r="B87" s="39" t="s">
+      <c r="B87" s="42" t="s">
         <v>68</v>
       </c>
-      <c r="C87" s="39"/>
-      <c r="D87" s="39"/>
-      <c r="E87" s="39"/>
-      <c r="F87" s="39"/>
-      <c r="G87" s="39"/>
-      <c r="H87" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="I87" s="38"/>
-      <c r="J87" s="49">
+      <c r="C87" s="42"/>
+      <c r="D87" s="42"/>
+      <c r="E87" s="42"/>
+      <c r="F87" s="42"/>
+      <c r="G87" s="42"/>
+      <c r="H87" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="I87" s="41"/>
+      <c r="J87" s="50">
         <v>0.5</v>
       </c>
     </row>
     <row r="88" ht="18" spans="1:10">
-      <c r="A88" s="38">
+      <c r="A88" s="41">
         <v>3</v>
       </c>
-      <c r="B88" s="39" t="s">
+      <c r="B88" s="42" t="s">
         <v>69</v>
       </c>
-      <c r="C88" s="39"/>
-      <c r="D88" s="39"/>
-      <c r="E88" s="39"/>
-      <c r="F88" s="39"/>
-      <c r="G88" s="39"/>
-      <c r="H88" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="I88" s="38"/>
-      <c r="J88" s="49">
+      <c r="C88" s="42"/>
+      <c r="D88" s="42"/>
+      <c r="E88" s="42"/>
+      <c r="F88" s="42"/>
+      <c r="G88" s="42"/>
+      <c r="H88" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="I88" s="41"/>
+      <c r="J88" s="50">
         <v>0.5</v>
       </c>
     </row>
@@ -3257,209 +3276,209 @@
       <c r="A89" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="E89" s="40"/>
-      <c r="F89" s="40"/>
-      <c r="G89" s="40"/>
-      <c r="H89" s="41"/>
-      <c r="I89" s="41"/>
+      <c r="E89" s="43"/>
+      <c r="F89" s="43"/>
+      <c r="G89" s="43"/>
+      <c r="H89" s="44"/>
+      <c r="I89" s="44"/>
     </row>
     <row r="90" ht="17.4" spans="1:10">
-      <c r="A90" s="36" t="s">
+      <c r="A90" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B90" s="37" t="s">
+      <c r="B90" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C90" s="37"/>
-      <c r="D90" s="37"/>
-      <c r="E90" s="37"/>
-      <c r="F90" s="37"/>
-      <c r="G90" s="37"/>
-      <c r="H90" s="36" t="s">
+      <c r="C90" s="40"/>
+      <c r="D90" s="40"/>
+      <c r="E90" s="40"/>
+      <c r="F90" s="40"/>
+      <c r="G90" s="40"/>
+      <c r="H90" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="I90" s="36"/>
-      <c r="J90" s="48" t="s">
+      <c r="I90" s="39"/>
+      <c r="J90" s="39" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="91" ht="18" spans="1:10">
-      <c r="A91" s="38">
-        <v>1</v>
-      </c>
-      <c r="B91" s="39" t="s">
+      <c r="A91" s="41">
+        <v>1</v>
+      </c>
+      <c r="B91" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="C91" s="39"/>
-      <c r="D91" s="39"/>
-      <c r="E91" s="39"/>
-      <c r="F91" s="39"/>
-      <c r="G91" s="39"/>
-      <c r="H91" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="I91" s="42"/>
-      <c r="J91" s="38">
+      <c r="C91" s="42"/>
+      <c r="D91" s="42"/>
+      <c r="E91" s="42"/>
+      <c r="F91" s="42"/>
+      <c r="G91" s="42"/>
+      <c r="H91" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="I91" s="45"/>
+      <c r="J91" s="41">
         <v>0.5</v>
       </c>
     </row>
     <row r="92" ht="18" spans="1:10">
-      <c r="A92" s="38">
+      <c r="A92" s="41">
         <v>2</v>
       </c>
-      <c r="B92" s="39" t="s">
+      <c r="B92" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="C92" s="39"/>
-      <c r="D92" s="39"/>
-      <c r="E92" s="39"/>
-      <c r="F92" s="39"/>
-      <c r="G92" s="39"/>
-      <c r="H92" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="I92" s="42"/>
-      <c r="J92" s="38">
+      <c r="C92" s="42"/>
+      <c r="D92" s="42"/>
+      <c r="E92" s="42"/>
+      <c r="F92" s="42"/>
+      <c r="G92" s="42"/>
+      <c r="H92" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="I92" s="45"/>
+      <c r="J92" s="41">
         <v>0.5</v>
       </c>
     </row>
     <row r="93" ht="18" spans="1:10">
-      <c r="A93" s="38">
+      <c r="A93" s="41">
         <v>3</v>
       </c>
-      <c r="B93" s="43" t="s">
+      <c r="B93" s="46" t="s">
         <v>73</v>
       </c>
-      <c r="C93" s="43"/>
-      <c r="D93" s="43"/>
-      <c r="E93" s="43"/>
-      <c r="F93" s="43"/>
-      <c r="G93" s="43"/>
-      <c r="H93" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="I93" s="42"/>
-      <c r="J93" s="38">
+      <c r="C93" s="46"/>
+      <c r="D93" s="46"/>
+      <c r="E93" s="46"/>
+      <c r="F93" s="46"/>
+      <c r="G93" s="46"/>
+      <c r="H93" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="I93" s="45"/>
+      <c r="J93" s="41">
         <v>0.5</v>
       </c>
     </row>
     <row r="94" ht="18" spans="1:10">
-      <c r="A94" s="38">
+      <c r="A94" s="41">
         <v>4</v>
       </c>
-      <c r="B94" s="43" t="s">
+      <c r="B94" s="46" t="s">
         <v>74</v>
       </c>
-      <c r="C94" s="43"/>
-      <c r="D94" s="43"/>
-      <c r="E94" s="43"/>
-      <c r="F94" s="43"/>
-      <c r="G94" s="43"/>
-      <c r="H94" s="44">
-        <v>1</v>
-      </c>
-      <c r="I94" s="50"/>
-      <c r="J94" s="38">
+      <c r="C94" s="46"/>
+      <c r="D94" s="46"/>
+      <c r="E94" s="46"/>
+      <c r="F94" s="46"/>
+      <c r="G94" s="46"/>
+      <c r="H94" s="47">
+        <v>1</v>
+      </c>
+      <c r="I94" s="51"/>
+      <c r="J94" s="41">
         <v>1</v>
       </c>
     </row>
     <row r="95" ht="18" spans="1:10">
-      <c r="A95" s="38">
+      <c r="A95" s="41">
         <v>5</v>
       </c>
-      <c r="B95" s="43" t="s">
+      <c r="B95" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="C95" s="43"/>
-      <c r="D95" s="43"/>
-      <c r="E95" s="43"/>
-      <c r="F95" s="43"/>
-      <c r="G95" s="43"/>
-      <c r="H95" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="I95" s="42"/>
-      <c r="J95" s="38">
+      <c r="C95" s="46"/>
+      <c r="D95" s="46"/>
+      <c r="E95" s="46"/>
+      <c r="F95" s="46"/>
+      <c r="G95" s="46"/>
+      <c r="H95" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="I95" s="45"/>
+      <c r="J95" s="41">
         <v>0.5</v>
       </c>
     </row>
     <row r="96" ht="18" spans="1:10">
-      <c r="A96" s="38">
+      <c r="A96" s="41">
         <v>6</v>
       </c>
-      <c r="B96" s="39" t="s">
+      <c r="B96" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="C96" s="39"/>
-      <c r="D96" s="39"/>
-      <c r="E96" s="39"/>
-      <c r="F96" s="39"/>
-      <c r="G96" s="39"/>
-      <c r="H96" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="I96" s="42"/>
-      <c r="J96" s="38">
+      <c r="C96" s="42"/>
+      <c r="D96" s="42"/>
+      <c r="E96" s="42"/>
+      <c r="F96" s="42"/>
+      <c r="G96" s="42"/>
+      <c r="H96" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="I96" s="45"/>
+      <c r="J96" s="41">
         <v>0.5</v>
       </c>
     </row>
     <row r="97" ht="18" spans="1:10">
-      <c r="A97" s="38">
+      <c r="A97" s="41">
         <v>7</v>
       </c>
-      <c r="B97" s="39" t="s">
+      <c r="B97" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="C97" s="39"/>
-      <c r="D97" s="39"/>
-      <c r="E97" s="39"/>
-      <c r="F97" s="39"/>
-      <c r="G97" s="39"/>
-      <c r="H97" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="I97" s="42"/>
-      <c r="J97" s="38">
+      <c r="C97" s="42"/>
+      <c r="D97" s="42"/>
+      <c r="E97" s="42"/>
+      <c r="F97" s="42"/>
+      <c r="G97" s="42"/>
+      <c r="H97" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="I97" s="45"/>
+      <c r="J97" s="41">
         <v>0.5</v>
       </c>
     </row>
     <row r="98" ht="18" spans="1:10">
-      <c r="A98" s="38">
+      <c r="A98" s="41">
         <v>8</v>
       </c>
-      <c r="B98" s="39" t="s">
+      <c r="B98" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="C98" s="39"/>
-      <c r="D98" s="39"/>
-      <c r="E98" s="39"/>
-      <c r="F98" s="39"/>
-      <c r="G98" s="39"/>
-      <c r="H98" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="I98" s="42"/>
-      <c r="J98" s="38">
+      <c r="C98" s="42"/>
+      <c r="D98" s="42"/>
+      <c r="E98" s="42"/>
+      <c r="F98" s="42"/>
+      <c r="G98" s="42"/>
+      <c r="H98" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="I98" s="45"/>
+      <c r="J98" s="41">
         <v>0.5</v>
       </c>
     </row>
     <row r="99" ht="18" spans="1:10">
-      <c r="A99" s="38">
+      <c r="A99" s="41">
         <v>9</v>
       </c>
-      <c r="B99" s="39" t="s">
+      <c r="B99" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="C99" s="39"/>
-      <c r="D99" s="39"/>
-      <c r="E99" s="39"/>
-      <c r="F99" s="39"/>
-      <c r="G99" s="39"/>
-      <c r="H99" s="42">
-        <v>1</v>
-      </c>
-      <c r="I99" s="42"/>
-      <c r="J99" s="38">
+      <c r="C99" s="42"/>
+      <c r="D99" s="42"/>
+      <c r="E99" s="42"/>
+      <c r="F99" s="42"/>
+      <c r="G99" s="42"/>
+      <c r="H99" s="45">
+        <v>1</v>
+      </c>
+      <c r="I99" s="45"/>
+      <c r="J99" s="41">
         <v>1</v>
       </c>
     </row>
@@ -3469,202 +3488,202 @@
       </c>
     </row>
     <row r="101" ht="17.4" spans="1:10">
-      <c r="A101" s="36" t="s">
+      <c r="A101" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B101" s="37" t="s">
+      <c r="B101" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C101" s="37"/>
-      <c r="D101" s="37"/>
-      <c r="E101" s="37"/>
-      <c r="F101" s="37"/>
-      <c r="G101" s="37"/>
-      <c r="H101" s="36" t="s">
+      <c r="C101" s="40"/>
+      <c r="D101" s="40"/>
+      <c r="E101" s="40"/>
+      <c r="F101" s="40"/>
+      <c r="G101" s="40"/>
+      <c r="H101" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="I101" s="36"/>
-      <c r="J101" s="48" t="s">
+      <c r="I101" s="39"/>
+      <c r="J101" s="39" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="102" ht="18" spans="1:10">
-      <c r="A102" s="38">
-        <v>1</v>
-      </c>
-      <c r="B102" s="39" t="s">
+      <c r="A102" s="41">
+        <v>1</v>
+      </c>
+      <c r="B102" s="42" t="s">
         <v>71</v>
       </c>
-      <c r="C102" s="39"/>
-      <c r="D102" s="39"/>
-      <c r="E102" s="39"/>
-      <c r="F102" s="39"/>
-      <c r="G102" s="39"/>
-      <c r="H102" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="I102" s="42"/>
-      <c r="J102" s="38">
+      <c r="C102" s="42"/>
+      <c r="D102" s="42"/>
+      <c r="E102" s="42"/>
+      <c r="F102" s="42"/>
+      <c r="G102" s="42"/>
+      <c r="H102" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="I102" s="45"/>
+      <c r="J102" s="41">
         <v>0.5</v>
       </c>
     </row>
     <row r="103" ht="18" spans="1:10">
-      <c r="A103" s="38">
+      <c r="A103" s="41">
         <v>2</v>
       </c>
-      <c r="B103" s="39" t="s">
+      <c r="B103" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="C103" s="39"/>
-      <c r="D103" s="39"/>
-      <c r="E103" s="39"/>
-      <c r="F103" s="39"/>
-      <c r="G103" s="39"/>
-      <c r="H103" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="I103" s="42"/>
-      <c r="J103" s="38">
+      <c r="C103" s="42"/>
+      <c r="D103" s="42"/>
+      <c r="E103" s="42"/>
+      <c r="F103" s="42"/>
+      <c r="G103" s="42"/>
+      <c r="H103" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="I103" s="45"/>
+      <c r="J103" s="41">
         <v>0.5</v>
       </c>
     </row>
     <row r="104" ht="18" spans="1:10">
-      <c r="A104" s="38">
+      <c r="A104" s="41">
         <v>3</v>
       </c>
-      <c r="B104" s="39" t="s">
+      <c r="B104" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="C104" s="39"/>
-      <c r="D104" s="39"/>
-      <c r="E104" s="39"/>
-      <c r="F104" s="39"/>
-      <c r="G104" s="39"/>
-      <c r="H104" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="I104" s="42"/>
-      <c r="J104" s="38">
+      <c r="C104" s="42"/>
+      <c r="D104" s="42"/>
+      <c r="E104" s="42"/>
+      <c r="F104" s="42"/>
+      <c r="G104" s="42"/>
+      <c r="H104" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="I104" s="45"/>
+      <c r="J104" s="41">
         <v>0.5</v>
       </c>
     </row>
     <row r="105" ht="18" spans="1:10">
-      <c r="A105" s="38">
+      <c r="A105" s="41">
         <v>4</v>
       </c>
-      <c r="B105" s="39" t="s">
+      <c r="B105" s="42" t="s">
         <v>74</v>
       </c>
-      <c r="C105" s="39"/>
-      <c r="D105" s="39"/>
-      <c r="E105" s="39"/>
-      <c r="F105" s="39"/>
-      <c r="G105" s="39"/>
-      <c r="H105" s="42">
-        <v>1</v>
-      </c>
-      <c r="I105" s="42"/>
-      <c r="J105" s="38">
+      <c r="C105" s="42"/>
+      <c r="D105" s="42"/>
+      <c r="E105" s="42"/>
+      <c r="F105" s="42"/>
+      <c r="G105" s="42"/>
+      <c r="H105" s="45">
+        <v>1</v>
+      </c>
+      <c r="I105" s="45"/>
+      <c r="J105" s="41">
         <v>1</v>
       </c>
     </row>
     <row r="106" ht="18" spans="1:10">
-      <c r="A106" s="38">
+      <c r="A106" s="41">
         <v>5</v>
       </c>
-      <c r="B106" s="39" t="s">
+      <c r="B106" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="C106" s="39"/>
-      <c r="D106" s="39"/>
-      <c r="E106" s="39"/>
-      <c r="F106" s="39"/>
-      <c r="G106" s="39"/>
-      <c r="H106" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="I106" s="42"/>
-      <c r="J106" s="38">
+      <c r="C106" s="42"/>
+      <c r="D106" s="42"/>
+      <c r="E106" s="42"/>
+      <c r="F106" s="42"/>
+      <c r="G106" s="42"/>
+      <c r="H106" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="I106" s="45"/>
+      <c r="J106" s="41">
         <v>0.5</v>
       </c>
     </row>
     <row r="107" ht="18" spans="1:10">
-      <c r="A107" s="38">
+      <c r="A107" s="41">
         <v>6</v>
       </c>
-      <c r="B107" s="39" t="s">
+      <c r="B107" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="C107" s="39"/>
-      <c r="D107" s="39"/>
-      <c r="E107" s="39"/>
-      <c r="F107" s="39"/>
-      <c r="G107" s="39"/>
-      <c r="H107" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="I107" s="42"/>
-      <c r="J107" s="38">
+      <c r="C107" s="42"/>
+      <c r="D107" s="42"/>
+      <c r="E107" s="42"/>
+      <c r="F107" s="42"/>
+      <c r="G107" s="42"/>
+      <c r="H107" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="I107" s="45"/>
+      <c r="J107" s="41">
         <v>0.5</v>
       </c>
     </row>
     <row r="108" ht="18" spans="1:10">
-      <c r="A108" s="38">
+      <c r="A108" s="41">
         <v>7</v>
       </c>
-      <c r="B108" s="39" t="s">
+      <c r="B108" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="C108" s="39"/>
-      <c r="D108" s="39"/>
-      <c r="E108" s="39"/>
-      <c r="F108" s="39"/>
-      <c r="G108" s="39"/>
-      <c r="H108" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="I108" s="42"/>
-      <c r="J108" s="38">
+      <c r="C108" s="42"/>
+      <c r="D108" s="42"/>
+      <c r="E108" s="42"/>
+      <c r="F108" s="42"/>
+      <c r="G108" s="42"/>
+      <c r="H108" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="I108" s="45"/>
+      <c r="J108" s="41">
         <v>0.5</v>
       </c>
     </row>
     <row r="109" ht="18" spans="1:10">
-      <c r="A109" s="38">
+      <c r="A109" s="41">
         <v>8</v>
       </c>
-      <c r="B109" s="39" t="s">
+      <c r="B109" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="C109" s="39"/>
-      <c r="D109" s="39"/>
-      <c r="E109" s="39"/>
-      <c r="F109" s="39"/>
-      <c r="G109" s="39"/>
-      <c r="H109" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="I109" s="42"/>
-      <c r="J109" s="38">
+      <c r="C109" s="42"/>
+      <c r="D109" s="42"/>
+      <c r="E109" s="42"/>
+      <c r="F109" s="42"/>
+      <c r="G109" s="42"/>
+      <c r="H109" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="I109" s="45"/>
+      <c r="J109" s="41">
         <v>0.5</v>
       </c>
     </row>
     <row r="110" ht="18" customHeight="1" spans="1:10">
-      <c r="A110" s="38">
+      <c r="A110" s="41">
         <v>9</v>
       </c>
-      <c r="B110" s="39" t="s">
+      <c r="B110" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="C110" s="39"/>
-      <c r="D110" s="39"/>
-      <c r="E110" s="39"/>
-      <c r="F110" s="39"/>
-      <c r="G110" s="39"/>
-      <c r="H110" s="42">
-        <v>1</v>
-      </c>
-      <c r="I110" s="42"/>
-      <c r="J110" s="38">
+      <c r="C110" s="42"/>
+      <c r="D110" s="42"/>
+      <c r="E110" s="42"/>
+      <c r="F110" s="42"/>
+      <c r="G110" s="42"/>
+      <c r="H110" s="45">
+        <v>1</v>
+      </c>
+      <c r="I110" s="45"/>
+      <c r="J110" s="41">
         <v>1</v>
       </c>
     </row>
@@ -3674,202 +3693,202 @@
       </c>
     </row>
     <row r="112" ht="17.4" spans="1:10">
-      <c r="A112" s="36" t="s">
+      <c r="A112" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B112" s="37" t="s">
+      <c r="B112" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C112" s="37"/>
-      <c r="D112" s="37"/>
-      <c r="E112" s="37"/>
-      <c r="F112" s="37"/>
-      <c r="G112" s="37"/>
-      <c r="H112" s="36" t="s">
+      <c r="C112" s="40"/>
+      <c r="D112" s="40"/>
+      <c r="E112" s="40"/>
+      <c r="F112" s="40"/>
+      <c r="G112" s="40"/>
+      <c r="H112" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="I112" s="36"/>
-      <c r="J112" s="48" t="s">
+      <c r="I112" s="39"/>
+      <c r="J112" s="39" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="113" ht="18" spans="1:10">
-      <c r="A113" s="38">
-        <v>1</v>
-      </c>
-      <c r="B113" s="45" t="s">
+      <c r="A113" s="41">
+        <v>1</v>
+      </c>
+      <c r="B113" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="C113" s="45"/>
-      <c r="D113" s="45"/>
-      <c r="E113" s="45"/>
-      <c r="F113" s="45"/>
-      <c r="G113" s="45"/>
-      <c r="H113" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="I113" s="42"/>
-      <c r="J113" s="38">
+      <c r="C113" s="48"/>
+      <c r="D113" s="48"/>
+      <c r="E113" s="48"/>
+      <c r="F113" s="48"/>
+      <c r="G113" s="48"/>
+      <c r="H113" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="I113" s="45"/>
+      <c r="J113" s="41">
         <v>0.5</v>
       </c>
     </row>
     <row r="114" ht="18" spans="1:10">
-      <c r="A114" s="38">
+      <c r="A114" s="41">
         <v>2</v>
       </c>
-      <c r="B114" s="45" t="s">
+      <c r="B114" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="C114" s="45"/>
-      <c r="D114" s="45"/>
-      <c r="E114" s="45"/>
-      <c r="F114" s="45"/>
-      <c r="G114" s="45"/>
-      <c r="H114" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="I114" s="42"/>
-      <c r="J114" s="38">
+      <c r="C114" s="48"/>
+      <c r="D114" s="48"/>
+      <c r="E114" s="48"/>
+      <c r="F114" s="48"/>
+      <c r="G114" s="48"/>
+      <c r="H114" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="I114" s="45"/>
+      <c r="J114" s="41">
         <v>0.5</v>
       </c>
     </row>
     <row r="115" ht="18" spans="1:10">
-      <c r="A115" s="38">
+      <c r="A115" s="41">
         <v>3</v>
       </c>
-      <c r="B115" s="45" t="s">
+      <c r="B115" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="C115" s="45"/>
-      <c r="D115" s="45"/>
-      <c r="E115" s="45"/>
-      <c r="F115" s="45"/>
-      <c r="G115" s="45"/>
-      <c r="H115" s="42">
-        <v>1</v>
-      </c>
-      <c r="I115" s="42"/>
-      <c r="J115" s="38">
+      <c r="C115" s="48"/>
+      <c r="D115" s="48"/>
+      <c r="E115" s="48"/>
+      <c r="F115" s="48"/>
+      <c r="G115" s="48"/>
+      <c r="H115" s="45">
+        <v>1</v>
+      </c>
+      <c r="I115" s="45"/>
+      <c r="J115" s="41">
         <v>1</v>
       </c>
     </row>
     <row r="116" ht="18" spans="1:10">
-      <c r="A116" s="38">
+      <c r="A116" s="41">
         <v>4</v>
       </c>
-      <c r="B116" s="45" t="s">
+      <c r="B116" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="C116" s="45"/>
-      <c r="D116" s="45"/>
-      <c r="E116" s="45"/>
-      <c r="F116" s="45"/>
-      <c r="G116" s="45"/>
-      <c r="H116" s="42">
-        <v>1</v>
-      </c>
-      <c r="I116" s="42"/>
-      <c r="J116" s="38">
+      <c r="C116" s="48"/>
+      <c r="D116" s="48"/>
+      <c r="E116" s="48"/>
+      <c r="F116" s="48"/>
+      <c r="G116" s="48"/>
+      <c r="H116" s="45">
+        <v>1</v>
+      </c>
+      <c r="I116" s="45"/>
+      <c r="J116" s="41">
         <v>1</v>
       </c>
     </row>
     <row r="117" ht="18" spans="1:10">
-      <c r="A117" s="38">
+      <c r="A117" s="41">
         <v>5</v>
       </c>
-      <c r="B117" s="45" t="s">
+      <c r="B117" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="C117" s="45"/>
-      <c r="D117" s="45"/>
-      <c r="E117" s="45"/>
-      <c r="F117" s="45"/>
-      <c r="G117" s="45"/>
-      <c r="H117" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="I117" s="42"/>
-      <c r="J117" s="38">
+      <c r="C117" s="48"/>
+      <c r="D117" s="48"/>
+      <c r="E117" s="48"/>
+      <c r="F117" s="48"/>
+      <c r="G117" s="48"/>
+      <c r="H117" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="I117" s="45"/>
+      <c r="J117" s="41">
         <v>0.5</v>
       </c>
     </row>
     <row r="118" ht="18" spans="1:10">
-      <c r="A118" s="38">
+      <c r="A118" s="41">
         <v>6</v>
       </c>
-      <c r="B118" s="45" t="s">
+      <c r="B118" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="C118" s="45"/>
-      <c r="D118" s="45"/>
-      <c r="E118" s="45"/>
-      <c r="F118" s="45"/>
-      <c r="G118" s="45"/>
-      <c r="H118" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="I118" s="42"/>
-      <c r="J118" s="38">
+      <c r="C118" s="48"/>
+      <c r="D118" s="48"/>
+      <c r="E118" s="48"/>
+      <c r="F118" s="48"/>
+      <c r="G118" s="48"/>
+      <c r="H118" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="I118" s="45"/>
+      <c r="J118" s="41">
         <v>0.5</v>
       </c>
     </row>
     <row r="119" ht="18" spans="1:10">
-      <c r="A119" s="38">
+      <c r="A119" s="41">
         <v>7</v>
       </c>
-      <c r="B119" s="45" t="s">
+      <c r="B119" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="C119" s="45"/>
-      <c r="D119" s="45"/>
-      <c r="E119" s="45"/>
-      <c r="F119" s="45"/>
-      <c r="G119" s="45"/>
-      <c r="H119" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="I119" s="42"/>
-      <c r="J119" s="38">
+      <c r="C119" s="48"/>
+      <c r="D119" s="48"/>
+      <c r="E119" s="48"/>
+      <c r="F119" s="48"/>
+      <c r="G119" s="48"/>
+      <c r="H119" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="I119" s="45"/>
+      <c r="J119" s="41">
         <v>0.5</v>
       </c>
     </row>
     <row r="120" ht="18" spans="1:10">
-      <c r="A120" s="38">
+      <c r="A120" s="41">
         <v>8</v>
       </c>
-      <c r="B120" s="45" t="s">
+      <c r="B120" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="C120" s="45"/>
-      <c r="D120" s="45"/>
-      <c r="E120" s="45"/>
-      <c r="F120" s="45"/>
-      <c r="G120" s="45"/>
-      <c r="H120" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="I120" s="42"/>
-      <c r="J120" s="38">
+      <c r="C120" s="48"/>
+      <c r="D120" s="48"/>
+      <c r="E120" s="48"/>
+      <c r="F120" s="48"/>
+      <c r="G120" s="48"/>
+      <c r="H120" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="I120" s="45"/>
+      <c r="J120" s="41">
         <v>0.5</v>
       </c>
     </row>
     <row r="121" ht="18" spans="1:10">
-      <c r="A121" s="38">
+      <c r="A121" s="41">
         <v>9</v>
       </c>
-      <c r="B121" s="45" t="s">
+      <c r="B121" s="48" t="s">
         <v>85</v>
       </c>
-      <c r="C121" s="45"/>
-      <c r="D121" s="45"/>
-      <c r="E121" s="45"/>
-      <c r="F121" s="45"/>
-      <c r="G121" s="45"/>
-      <c r="H121" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="I121" s="42"/>
-      <c r="J121" s="38">
+      <c r="C121" s="48"/>
+      <c r="D121" s="48"/>
+      <c r="E121" s="48"/>
+      <c r="F121" s="48"/>
+      <c r="G121" s="48"/>
+      <c r="H121" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="I121" s="45"/>
+      <c r="J121" s="41">
         <v>0.5</v>
       </c>
     </row>
@@ -3879,102 +3898,102 @@
       </c>
     </row>
     <row r="123" ht="17.4" spans="1:10">
-      <c r="A123" s="36" t="s">
+      <c r="A123" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B123" s="37" t="s">
+      <c r="B123" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C123" s="37"/>
-      <c r="D123" s="37"/>
-      <c r="E123" s="37"/>
-      <c r="F123" s="37"/>
-      <c r="G123" s="37"/>
-      <c r="H123" s="36" t="s">
+      <c r="C123" s="40"/>
+      <c r="D123" s="40"/>
+      <c r="E123" s="40"/>
+      <c r="F123" s="40"/>
+      <c r="G123" s="40"/>
+      <c r="H123" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="I123" s="36"/>
-      <c r="J123" s="48" t="s">
+      <c r="I123" s="39"/>
+      <c r="J123" s="39" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="124" ht="18.6" customHeight="1" spans="1:10">
-      <c r="A124" s="38">
-        <v>1</v>
-      </c>
-      <c r="B124" s="39" t="s">
+      <c r="A124" s="41">
+        <v>1</v>
+      </c>
+      <c r="B124" s="42" t="s">
         <v>82</v>
       </c>
-      <c r="C124" s="39"/>
-      <c r="D124" s="39"/>
-      <c r="E124" s="39"/>
-      <c r="F124" s="39"/>
-      <c r="G124" s="39"/>
-      <c r="H124" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="I124" s="42"/>
-      <c r="J124" s="38">
+      <c r="C124" s="42"/>
+      <c r="D124" s="42"/>
+      <c r="E124" s="42"/>
+      <c r="F124" s="42"/>
+      <c r="G124" s="42"/>
+      <c r="H124" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="I124" s="45"/>
+      <c r="J124" s="41">
         <v>0.5</v>
       </c>
     </row>
     <row r="125" ht="18" spans="1:10">
-      <c r="A125" s="38">
+      <c r="A125" s="41">
         <v>2</v>
       </c>
-      <c r="B125" s="39" t="s">
+      <c r="B125" s="42" t="s">
         <v>87</v>
       </c>
-      <c r="C125" s="39"/>
-      <c r="D125" s="39"/>
-      <c r="E125" s="39"/>
-      <c r="F125" s="39"/>
-      <c r="G125" s="39"/>
-      <c r="H125" s="42">
-        <v>1</v>
-      </c>
-      <c r="I125" s="42"/>
-      <c r="J125" s="38">
+      <c r="C125" s="42"/>
+      <c r="D125" s="42"/>
+      <c r="E125" s="42"/>
+      <c r="F125" s="42"/>
+      <c r="G125" s="42"/>
+      <c r="H125" s="45">
+        <v>1</v>
+      </c>
+      <c r="I125" s="45"/>
+      <c r="J125" s="41">
         <v>1</v>
       </c>
     </row>
     <row r="126" ht="18" spans="1:10">
-      <c r="A126" s="38">
+      <c r="A126" s="41">
         <v>3</v>
       </c>
-      <c r="B126" s="39" t="s">
+      <c r="B126" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="C126" s="39"/>
-      <c r="D126" s="39"/>
-      <c r="E126" s="39"/>
-      <c r="F126" s="39"/>
-      <c r="G126" s="39"/>
-      <c r="H126" s="42">
+      <c r="C126" s="42"/>
+      <c r="D126" s="42"/>
+      <c r="E126" s="42"/>
+      <c r="F126" s="42"/>
+      <c r="G126" s="42"/>
+      <c r="H126" s="45">
         <v>1.5</v>
       </c>
-      <c r="I126" s="42"/>
-      <c r="J126" s="38">
+      <c r="I126" s="45"/>
+      <c r="J126" s="41">
         <v>1.5</v>
       </c>
     </row>
     <row r="127" ht="18" spans="1:10">
-      <c r="A127" s="38">
+      <c r="A127" s="41">
         <v>4</v>
       </c>
-      <c r="B127" s="39" t="s">
+      <c r="B127" s="42" t="s">
         <v>89</v>
       </c>
-      <c r="C127" s="39"/>
-      <c r="D127" s="39"/>
-      <c r="E127" s="39"/>
-      <c r="F127" s="39"/>
-      <c r="G127" s="39"/>
-      <c r="H127" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="I127" s="42"/>
-      <c r="J127" s="38">
+      <c r="C127" s="42"/>
+      <c r="D127" s="42"/>
+      <c r="E127" s="42"/>
+      <c r="F127" s="42"/>
+      <c r="G127" s="42"/>
+      <c r="H127" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="I127" s="45"/>
+      <c r="J127" s="41">
         <v>0.5</v>
       </c>
     </row>
@@ -3982,210 +4001,210 @@
       <c r="A128" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="B128" s="46"/>
-      <c r="C128" s="46"/>
-      <c r="D128" s="46"/>
-      <c r="E128" s="46"/>
-      <c r="F128" s="46"/>
-      <c r="G128" s="46"/>
+      <c r="B128" s="49"/>
+      <c r="C128" s="49"/>
+      <c r="D128" s="49"/>
+      <c r="E128" s="49"/>
+      <c r="F128" s="49"/>
+      <c r="G128" s="49"/>
     </row>
     <row r="129" ht="17.4" spans="1:10">
-      <c r="A129" s="36" t="s">
+      <c r="A129" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B129" s="37" t="s">
+      <c r="B129" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C129" s="37"/>
-      <c r="D129" s="37"/>
-      <c r="E129" s="37"/>
-      <c r="F129" s="37"/>
-      <c r="G129" s="37"/>
-      <c r="H129" s="36" t="s">
+      <c r="C129" s="40"/>
+      <c r="D129" s="40"/>
+      <c r="E129" s="40"/>
+      <c r="F129" s="40"/>
+      <c r="G129" s="40"/>
+      <c r="H129" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="I129" s="36"/>
-      <c r="J129" s="48" t="s">
+      <c r="I129" s="39"/>
+      <c r="J129" s="39" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="130" ht="18" spans="1:10">
-      <c r="A130" s="38">
-        <v>1</v>
-      </c>
-      <c r="B130" s="39" t="s">
+      <c r="A130" s="41">
+        <v>1</v>
+      </c>
+      <c r="B130" s="42" t="s">
         <v>91</v>
       </c>
-      <c r="C130" s="39"/>
-      <c r="D130" s="39"/>
-      <c r="E130" s="39"/>
-      <c r="F130" s="39"/>
-      <c r="G130" s="39"/>
-      <c r="H130" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="I130" s="38"/>
-      <c r="J130" s="38">
+      <c r="C130" s="42"/>
+      <c r="D130" s="42"/>
+      <c r="E130" s="42"/>
+      <c r="F130" s="42"/>
+      <c r="G130" s="42"/>
+      <c r="H130" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="I130" s="41"/>
+      <c r="J130" s="41">
         <v>0.5</v>
       </c>
     </row>
     <row r="131" ht="18" spans="1:10">
-      <c r="A131" s="38">
+      <c r="A131" s="41">
         <v>2</v>
       </c>
-      <c r="B131" s="39" t="s">
+      <c r="B131" s="42" t="s">
         <v>92</v>
       </c>
-      <c r="C131" s="39"/>
-      <c r="D131" s="39"/>
-      <c r="E131" s="39"/>
-      <c r="F131" s="39"/>
-      <c r="G131" s="39"/>
-      <c r="H131" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="I131" s="38"/>
-      <c r="J131" s="38">
+      <c r="C131" s="42"/>
+      <c r="D131" s="42"/>
+      <c r="E131" s="42"/>
+      <c r="F131" s="42"/>
+      <c r="G131" s="42"/>
+      <c r="H131" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="I131" s="41"/>
+      <c r="J131" s="41">
         <v>0.5</v>
       </c>
     </row>
     <row r="132" ht="18" spans="1:10">
-      <c r="A132" s="38">
+      <c r="A132" s="41">
         <v>3</v>
       </c>
-      <c r="B132" s="39" t="s">
+      <c r="B132" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="C132" s="39"/>
-      <c r="D132" s="39"/>
-      <c r="E132" s="39"/>
-      <c r="F132" s="39"/>
-      <c r="G132" s="39"/>
-      <c r="H132" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="I132" s="53"/>
-      <c r="J132" s="38">
+      <c r="C132" s="42"/>
+      <c r="D132" s="42"/>
+      <c r="E132" s="42"/>
+      <c r="F132" s="42"/>
+      <c r="G132" s="42"/>
+      <c r="H132" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="I132" s="55"/>
+      <c r="J132" s="41">
         <v>0.5</v>
       </c>
     </row>
     <row r="133" ht="18" spans="1:10">
-      <c r="A133" s="38">
+      <c r="A133" s="41">
         <v>4</v>
       </c>
-      <c r="B133" s="39" t="s">
+      <c r="B133" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="C133" s="39"/>
-      <c r="D133" s="39"/>
-      <c r="E133" s="39"/>
-      <c r="F133" s="39"/>
-      <c r="G133" s="39"/>
-      <c r="H133" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="I133" s="53"/>
-      <c r="J133" s="38">
+      <c r="C133" s="42"/>
+      <c r="D133" s="42"/>
+      <c r="E133" s="42"/>
+      <c r="F133" s="42"/>
+      <c r="G133" s="42"/>
+      <c r="H133" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="I133" s="55"/>
+      <c r="J133" s="41">
         <v>0.5</v>
       </c>
     </row>
     <row r="134" ht="18" spans="1:10">
-      <c r="A134" s="38">
+      <c r="A134" s="41">
         <v>5</v>
       </c>
-      <c r="B134" s="39" t="s">
+      <c r="B134" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="C134" s="39"/>
-      <c r="D134" s="39"/>
-      <c r="E134" s="39"/>
-      <c r="F134" s="39"/>
-      <c r="G134" s="39"/>
-      <c r="H134" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="I134" s="38"/>
-      <c r="J134" s="38">
+      <c r="C134" s="42"/>
+      <c r="D134" s="42"/>
+      <c r="E134" s="42"/>
+      <c r="F134" s="42"/>
+      <c r="G134" s="42"/>
+      <c r="H134" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="I134" s="41"/>
+      <c r="J134" s="41">
         <v>0.5</v>
       </c>
     </row>
     <row r="135" ht="18" spans="1:10">
-      <c r="A135" s="38">
+      <c r="A135" s="41">
         <v>6</v>
       </c>
-      <c r="B135" s="39" t="s">
+      <c r="B135" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="C135" s="39"/>
-      <c r="D135" s="39"/>
-      <c r="E135" s="39"/>
-      <c r="F135" s="39"/>
-      <c r="G135" s="39"/>
-      <c r="H135" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="I135" s="38"/>
-      <c r="J135" s="38">
+      <c r="C135" s="42"/>
+      <c r="D135" s="42"/>
+      <c r="E135" s="42"/>
+      <c r="F135" s="42"/>
+      <c r="G135" s="42"/>
+      <c r="H135" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="I135" s="41"/>
+      <c r="J135" s="41">
         <v>0.5</v>
       </c>
     </row>
     <row r="136" ht="18" spans="1:10">
-      <c r="A136" s="38">
+      <c r="A136" s="41">
         <v>7</v>
       </c>
-      <c r="B136" s="39" t="s">
+      <c r="B136" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="C136" s="39"/>
-      <c r="D136" s="39"/>
-      <c r="E136" s="39"/>
-      <c r="F136" s="39"/>
-      <c r="G136" s="39"/>
-      <c r="H136" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="I136" s="38"/>
-      <c r="J136" s="38">
+      <c r="C136" s="42"/>
+      <c r="D136" s="42"/>
+      <c r="E136" s="42"/>
+      <c r="F136" s="42"/>
+      <c r="G136" s="42"/>
+      <c r="H136" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="I136" s="41"/>
+      <c r="J136" s="41">
         <v>0.5</v>
       </c>
     </row>
     <row r="137" ht="18" spans="1:10">
-      <c r="A137" s="38">
+      <c r="A137" s="41">
         <v>8</v>
       </c>
-      <c r="B137" s="39" t="s">
+      <c r="B137" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="C137" s="39"/>
-      <c r="D137" s="39"/>
-      <c r="E137" s="39"/>
-      <c r="F137" s="39"/>
-      <c r="G137" s="39"/>
-      <c r="H137" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="I137" s="38"/>
-      <c r="J137" s="38">
+      <c r="C137" s="42"/>
+      <c r="D137" s="42"/>
+      <c r="E137" s="42"/>
+      <c r="F137" s="42"/>
+      <c r="G137" s="42"/>
+      <c r="H137" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="I137" s="41"/>
+      <c r="J137" s="41">
         <v>0.5</v>
       </c>
     </row>
     <row r="138" ht="18" customHeight="1" spans="1:10">
-      <c r="A138" s="38">
+      <c r="A138" s="41">
         <v>9</v>
       </c>
-      <c r="B138" s="39" t="s">
+      <c r="B138" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="C138" s="39"/>
-      <c r="D138" s="39"/>
-      <c r="E138" s="39"/>
-      <c r="F138" s="39"/>
-      <c r="G138" s="39"/>
-      <c r="H138" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="I138" s="38"/>
-      <c r="J138" s="38">
+      <c r="C138" s="42"/>
+      <c r="D138" s="42"/>
+      <c r="E138" s="42"/>
+      <c r="F138" s="42"/>
+      <c r="G138" s="42"/>
+      <c r="H138" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="I138" s="41"/>
+      <c r="J138" s="41">
         <v>0.5</v>
       </c>
     </row>
@@ -4195,202 +4214,202 @@
       </c>
     </row>
     <row r="140" ht="17.4" spans="1:10">
-      <c r="A140" s="36" t="s">
+      <c r="A140" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B140" s="37" t="s">
+      <c r="B140" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C140" s="37"/>
-      <c r="D140" s="37"/>
-      <c r="E140" s="37"/>
-      <c r="F140" s="37"/>
-      <c r="G140" s="37"/>
-      <c r="H140" s="36" t="s">
+      <c r="C140" s="40"/>
+      <c r="D140" s="40"/>
+      <c r="E140" s="40"/>
+      <c r="F140" s="40"/>
+      <c r="G140" s="40"/>
+      <c r="H140" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="I140" s="36"/>
-      <c r="J140" s="48" t="s">
+      <c r="I140" s="39"/>
+      <c r="J140" s="39" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="141" ht="18" spans="1:10">
-      <c r="A141" s="38">
-        <v>1</v>
-      </c>
-      <c r="B141" s="39" t="s">
+      <c r="A141" s="41">
+        <v>1</v>
+      </c>
+      <c r="B141" s="42" t="s">
         <v>95</v>
       </c>
-      <c r="C141" s="39"/>
-      <c r="D141" s="39"/>
-      <c r="E141" s="39"/>
-      <c r="F141" s="39"/>
-      <c r="G141" s="39"/>
-      <c r="H141" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="I141" s="42"/>
-      <c r="J141" s="38">
+      <c r="C141" s="42"/>
+      <c r="D141" s="42"/>
+      <c r="E141" s="42"/>
+      <c r="F141" s="42"/>
+      <c r="G141" s="42"/>
+      <c r="H141" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="I141" s="45"/>
+      <c r="J141" s="41">
         <v>0.5</v>
       </c>
     </row>
     <row r="142" ht="18" spans="1:10">
-      <c r="A142" s="38">
+      <c r="A142" s="41">
         <v>2</v>
       </c>
-      <c r="B142" s="39" t="s">
+      <c r="B142" s="42" t="s">
         <v>96</v>
       </c>
-      <c r="C142" s="39"/>
-      <c r="D142" s="39"/>
-      <c r="E142" s="39"/>
-      <c r="F142" s="39"/>
-      <c r="G142" s="39"/>
-      <c r="H142" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="I142" s="42"/>
-      <c r="J142" s="38">
+      <c r="C142" s="42"/>
+      <c r="D142" s="42"/>
+      <c r="E142" s="42"/>
+      <c r="F142" s="42"/>
+      <c r="G142" s="42"/>
+      <c r="H142" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="I142" s="45"/>
+      <c r="J142" s="41">
         <v>0.5</v>
       </c>
     </row>
     <row r="143" ht="18" spans="1:10">
-      <c r="A143" s="38">
+      <c r="A143" s="41">
         <v>3</v>
       </c>
-      <c r="B143" s="39" t="s">
+      <c r="B143" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="C143" s="39"/>
-      <c r="D143" s="39"/>
-      <c r="E143" s="39"/>
-      <c r="F143" s="39"/>
-      <c r="G143" s="39"/>
-      <c r="H143" s="42">
-        <v>1</v>
-      </c>
-      <c r="I143" s="42"/>
-      <c r="J143" s="38">
+      <c r="C143" s="42"/>
+      <c r="D143" s="42"/>
+      <c r="E143" s="42"/>
+      <c r="F143" s="42"/>
+      <c r="G143" s="42"/>
+      <c r="H143" s="45">
+        <v>1</v>
+      </c>
+      <c r="I143" s="45"/>
+      <c r="J143" s="41">
         <v>1</v>
       </c>
     </row>
     <row r="144" ht="18" spans="1:10">
-      <c r="A144" s="38">
+      <c r="A144" s="41">
         <v>4</v>
       </c>
-      <c r="B144" s="39" t="s">
+      <c r="B144" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="C144" s="39"/>
-      <c r="D144" s="39"/>
-      <c r="E144" s="39"/>
-      <c r="F144" s="39"/>
-      <c r="G144" s="39"/>
-      <c r="H144" s="42">
-        <v>1</v>
-      </c>
-      <c r="I144" s="42"/>
-      <c r="J144" s="38">
+      <c r="C144" s="42"/>
+      <c r="D144" s="42"/>
+      <c r="E144" s="42"/>
+      <c r="F144" s="42"/>
+      <c r="G144" s="42"/>
+      <c r="H144" s="45">
+        <v>1</v>
+      </c>
+      <c r="I144" s="45"/>
+      <c r="J144" s="41">
         <v>1</v>
       </c>
     </row>
     <row r="145" ht="18" spans="1:10">
-      <c r="A145" s="38">
+      <c r="A145" s="41">
         <v>5</v>
       </c>
-      <c r="B145" s="39" t="s">
+      <c r="B145" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="C145" s="39"/>
-      <c r="D145" s="39"/>
-      <c r="E145" s="39"/>
-      <c r="F145" s="39"/>
-      <c r="G145" s="39"/>
-      <c r="H145" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="I145" s="42"/>
-      <c r="J145" s="38">
+      <c r="C145" s="42"/>
+      <c r="D145" s="42"/>
+      <c r="E145" s="42"/>
+      <c r="F145" s="42"/>
+      <c r="G145" s="42"/>
+      <c r="H145" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="I145" s="45"/>
+      <c r="J145" s="41">
         <v>0.5</v>
       </c>
     </row>
     <row r="146" ht="18" spans="1:10">
-      <c r="A146" s="38">
+      <c r="A146" s="41">
         <v>6</v>
       </c>
-      <c r="B146" s="39" t="s">
+      <c r="B146" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="C146" s="39"/>
-      <c r="D146" s="39"/>
-      <c r="E146" s="39"/>
-      <c r="F146" s="39"/>
-      <c r="G146" s="39"/>
-      <c r="H146" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="I146" s="42"/>
-      <c r="J146" s="38">
+      <c r="C146" s="42"/>
+      <c r="D146" s="42"/>
+      <c r="E146" s="42"/>
+      <c r="F146" s="42"/>
+      <c r="G146" s="42"/>
+      <c r="H146" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="I146" s="45"/>
+      <c r="J146" s="41">
         <v>0.5</v>
       </c>
     </row>
     <row r="147" ht="18" spans="1:10">
-      <c r="A147" s="38">
+      <c r="A147" s="41">
         <v>7</v>
       </c>
-      <c r="B147" s="39" t="s">
+      <c r="B147" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="C147" s="39"/>
-      <c r="D147" s="39"/>
-      <c r="E147" s="39"/>
-      <c r="F147" s="39"/>
-      <c r="G147" s="39"/>
-      <c r="H147" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="I147" s="42"/>
-      <c r="J147" s="38">
+      <c r="C147" s="42"/>
+      <c r="D147" s="42"/>
+      <c r="E147" s="42"/>
+      <c r="F147" s="42"/>
+      <c r="G147" s="42"/>
+      <c r="H147" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="I147" s="45"/>
+      <c r="J147" s="41">
         <v>0.5</v>
       </c>
     </row>
     <row r="148" ht="18" spans="1:10">
-      <c r="A148" s="38">
+      <c r="A148" s="41">
         <v>8</v>
       </c>
-      <c r="B148" s="39" t="s">
+      <c r="B148" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="C148" s="39"/>
-      <c r="D148" s="39"/>
-      <c r="E148" s="39"/>
-      <c r="F148" s="39"/>
-      <c r="G148" s="39"/>
-      <c r="H148" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="I148" s="42"/>
-      <c r="J148" s="38">
+      <c r="C148" s="42"/>
+      <c r="D148" s="42"/>
+      <c r="E148" s="42"/>
+      <c r="F148" s="42"/>
+      <c r="G148" s="42"/>
+      <c r="H148" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="I148" s="45"/>
+      <c r="J148" s="41">
         <v>0.5</v>
       </c>
     </row>
     <row r="149" ht="18" spans="1:10">
-      <c r="A149" s="38">
+      <c r="A149" s="41">
         <v>9</v>
       </c>
-      <c r="B149" s="39" t="s">
+      <c r="B149" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="C149" s="39"/>
-      <c r="D149" s="39"/>
-      <c r="E149" s="39"/>
-      <c r="F149" s="39"/>
-      <c r="G149" s="39"/>
-      <c r="H149" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="I149" s="42"/>
-      <c r="J149" s="38">
+      <c r="C149" s="42"/>
+      <c r="D149" s="42"/>
+      <c r="E149" s="42"/>
+      <c r="F149" s="42"/>
+      <c r="G149" s="42"/>
+      <c r="H149" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="I149" s="45"/>
+      <c r="J149" s="41">
         <v>0.5</v>
       </c>
     </row>
@@ -4400,202 +4419,202 @@
       </c>
     </row>
     <row r="151" ht="17.4" spans="1:10">
-      <c r="A151" s="48" t="s">
+      <c r="A151" s="53" t="s">
         <v>10</v>
       </c>
-      <c r="B151" s="37" t="s">
+      <c r="B151" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C151" s="37"/>
-      <c r="D151" s="37"/>
-      <c r="E151" s="37"/>
-      <c r="F151" s="37"/>
-      <c r="G151" s="37"/>
-      <c r="H151" s="36" t="s">
+      <c r="C151" s="40"/>
+      <c r="D151" s="40"/>
+      <c r="E151" s="40"/>
+      <c r="F151" s="40"/>
+      <c r="G151" s="40"/>
+      <c r="H151" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="I151" s="36"/>
-      <c r="J151" s="48" t="s">
+      <c r="I151" s="39"/>
+      <c r="J151" s="39" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="152" ht="18" spans="1:10">
-      <c r="A152" s="38">
-        <v>1</v>
-      </c>
-      <c r="B152" s="39" t="s">
+      <c r="A152" s="41">
+        <v>1</v>
+      </c>
+      <c r="B152" s="42" t="s">
         <v>98</v>
       </c>
-      <c r="C152" s="39"/>
-      <c r="D152" s="39"/>
-      <c r="E152" s="39"/>
-      <c r="F152" s="39"/>
-      <c r="G152" s="39"/>
-      <c r="H152" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="I152" s="42"/>
-      <c r="J152" s="38">
+      <c r="C152" s="42"/>
+      <c r="D152" s="42"/>
+      <c r="E152" s="42"/>
+      <c r="F152" s="42"/>
+      <c r="G152" s="42"/>
+      <c r="H152" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="I152" s="45"/>
+      <c r="J152" s="41">
         <v>0.5</v>
       </c>
     </row>
     <row r="153" ht="18" spans="1:10">
-      <c r="A153" s="38">
+      <c r="A153" s="41">
         <v>2</v>
       </c>
-      <c r="B153" s="39" t="s">
+      <c r="B153" s="42" t="s">
         <v>99</v>
       </c>
-      <c r="C153" s="39"/>
-      <c r="D153" s="39"/>
-      <c r="E153" s="39"/>
-      <c r="F153" s="39"/>
-      <c r="G153" s="39"/>
-      <c r="H153" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="I153" s="42"/>
-      <c r="J153" s="38">
+      <c r="C153" s="42"/>
+      <c r="D153" s="42"/>
+      <c r="E153" s="42"/>
+      <c r="F153" s="42"/>
+      <c r="G153" s="42"/>
+      <c r="H153" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="I153" s="45"/>
+      <c r="J153" s="41">
         <v>0.5</v>
       </c>
     </row>
     <row r="154" ht="18" spans="1:10">
-      <c r="A154" s="38">
+      <c r="A154" s="41">
         <v>3</v>
       </c>
-      <c r="B154" s="39" t="s">
+      <c r="B154" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="C154" s="39"/>
-      <c r="D154" s="39"/>
-      <c r="E154" s="39"/>
-      <c r="F154" s="39"/>
-      <c r="G154" s="39"/>
-      <c r="H154" s="42">
-        <v>1</v>
-      </c>
-      <c r="I154" s="42"/>
-      <c r="J154" s="38">
+      <c r="C154" s="42"/>
+      <c r="D154" s="42"/>
+      <c r="E154" s="42"/>
+      <c r="F154" s="42"/>
+      <c r="G154" s="42"/>
+      <c r="H154" s="45">
+        <v>1</v>
+      </c>
+      <c r="I154" s="45"/>
+      <c r="J154" s="41">
         <v>1</v>
       </c>
     </row>
     <row r="155" ht="18" spans="1:10">
-      <c r="A155" s="38">
+      <c r="A155" s="41">
         <v>4</v>
       </c>
-      <c r="B155" s="39" t="s">
+      <c r="B155" s="42" t="s">
         <v>93</v>
       </c>
-      <c r="C155" s="39"/>
-      <c r="D155" s="39"/>
-      <c r="E155" s="39"/>
-      <c r="F155" s="39"/>
-      <c r="G155" s="39"/>
-      <c r="H155" s="42">
-        <v>1</v>
-      </c>
-      <c r="I155" s="42"/>
-      <c r="J155" s="38">
+      <c r="C155" s="42"/>
+      <c r="D155" s="42"/>
+      <c r="E155" s="42"/>
+      <c r="F155" s="42"/>
+      <c r="G155" s="42"/>
+      <c r="H155" s="45">
+        <v>1</v>
+      </c>
+      <c r="I155" s="45"/>
+      <c r="J155" s="41">
         <v>1</v>
       </c>
     </row>
     <row r="156" ht="18" spans="1:10">
-      <c r="A156" s="38">
+      <c r="A156" s="41">
         <v>5</v>
       </c>
-      <c r="B156" s="39" t="s">
+      <c r="B156" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="C156" s="39"/>
-      <c r="D156" s="39"/>
-      <c r="E156" s="39"/>
-      <c r="F156" s="39"/>
-      <c r="G156" s="39"/>
-      <c r="H156" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="I156" s="42"/>
-      <c r="J156" s="38">
+      <c r="C156" s="42"/>
+      <c r="D156" s="42"/>
+      <c r="E156" s="42"/>
+      <c r="F156" s="42"/>
+      <c r="G156" s="42"/>
+      <c r="H156" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="I156" s="45"/>
+      <c r="J156" s="41">
         <v>0.5</v>
       </c>
     </row>
     <row r="157" ht="18" spans="1:10">
-      <c r="A157" s="38">
+      <c r="A157" s="41">
         <v>6</v>
       </c>
-      <c r="B157" s="39" t="s">
+      <c r="B157" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="C157" s="39"/>
-      <c r="D157" s="39"/>
-      <c r="E157" s="39"/>
-      <c r="F157" s="39"/>
-      <c r="G157" s="39"/>
-      <c r="H157" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="I157" s="42"/>
-      <c r="J157" s="38">
+      <c r="C157" s="42"/>
+      <c r="D157" s="42"/>
+      <c r="E157" s="42"/>
+      <c r="F157" s="42"/>
+      <c r="G157" s="42"/>
+      <c r="H157" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="I157" s="45"/>
+      <c r="J157" s="41">
         <v>0.5</v>
       </c>
     </row>
     <row r="158" ht="18" spans="1:10">
-      <c r="A158" s="38">
+      <c r="A158" s="41">
         <v>7</v>
       </c>
-      <c r="B158" s="39" t="s">
+      <c r="B158" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="C158" s="39"/>
-      <c r="D158" s="39"/>
-      <c r="E158" s="39"/>
-      <c r="F158" s="39"/>
-      <c r="G158" s="39"/>
-      <c r="H158" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="I158" s="42"/>
-      <c r="J158" s="38">
+      <c r="C158" s="42"/>
+      <c r="D158" s="42"/>
+      <c r="E158" s="42"/>
+      <c r="F158" s="42"/>
+      <c r="G158" s="42"/>
+      <c r="H158" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="I158" s="45"/>
+      <c r="J158" s="41">
         <v>0.5</v>
       </c>
     </row>
     <row r="159" ht="18" spans="1:10">
-      <c r="A159" s="38">
+      <c r="A159" s="41">
         <v>8</v>
       </c>
-      <c r="B159" s="39" t="s">
+      <c r="B159" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="C159" s="39"/>
-      <c r="D159" s="39"/>
-      <c r="E159" s="39"/>
-      <c r="F159" s="39"/>
-      <c r="G159" s="39"/>
-      <c r="H159" s="42">
-        <v>0.5</v>
-      </c>
-      <c r="I159" s="42"/>
-      <c r="J159" s="38">
+      <c r="C159" s="42"/>
+      <c r="D159" s="42"/>
+      <c r="E159" s="42"/>
+      <c r="F159" s="42"/>
+      <c r="G159" s="42"/>
+      <c r="H159" s="45">
+        <v>0.5</v>
+      </c>
+      <c r="I159" s="45"/>
+      <c r="J159" s="41">
         <v>0.5</v>
       </c>
     </row>
     <row r="160" ht="18" customHeight="1" spans="1:16">
-      <c r="A160" s="38">
+      <c r="A160" s="41">
         <v>9</v>
       </c>
-      <c r="B160" s="39" t="s">
+      <c r="B160" s="42" t="s">
         <v>79</v>
       </c>
-      <c r="C160" s="39"/>
-      <c r="D160" s="39"/>
-      <c r="E160" s="39"/>
-      <c r="F160" s="39"/>
-      <c r="G160" s="39"/>
-      <c r="H160" s="42">
-        <v>1</v>
-      </c>
-      <c r="I160" s="42"/>
-      <c r="J160" s="38">
+      <c r="C160" s="42"/>
+      <c r="D160" s="42"/>
+      <c r="E160" s="42"/>
+      <c r="F160" s="42"/>
+      <c r="G160" s="42"/>
+      <c r="H160" s="45">
+        <v>1</v>
+      </c>
+      <c r="I160" s="45"/>
+      <c r="J160" s="41">
         <v>1</v>
       </c>
       <c r="P160" t="s">
@@ -4608,202 +4627,202 @@
       </c>
     </row>
     <row r="162" ht="17.4" spans="1:10">
-      <c r="A162" s="36" t="s">
+      <c r="A162" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B162" s="37" t="s">
+      <c r="B162" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C162" s="37"/>
-      <c r="D162" s="37"/>
-      <c r="E162" s="37"/>
-      <c r="F162" s="37"/>
-      <c r="G162" s="37"/>
-      <c r="H162" s="52" t="s">
+      <c r="C162" s="40"/>
+      <c r="D162" s="40"/>
+      <c r="E162" s="40"/>
+      <c r="F162" s="40"/>
+      <c r="G162" s="40"/>
+      <c r="H162" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="I162" s="54"/>
-      <c r="J162" s="48" t="s">
+      <c r="I162" s="56"/>
+      <c r="J162" s="39" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="163" ht="18" spans="1:10">
-      <c r="A163" s="38">
-        <v>1</v>
-      </c>
-      <c r="B163" s="39" t="s">
+      <c r="A163" s="41">
+        <v>1</v>
+      </c>
+      <c r="B163" s="42" t="s">
         <v>102</v>
       </c>
-      <c r="C163" s="39"/>
-      <c r="D163" s="39"/>
-      <c r="E163" s="39"/>
-      <c r="F163" s="39"/>
-      <c r="G163" s="39"/>
-      <c r="H163" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="I163" s="53"/>
-      <c r="J163" s="38">
+      <c r="C163" s="42"/>
+      <c r="D163" s="42"/>
+      <c r="E163" s="42"/>
+      <c r="F163" s="42"/>
+      <c r="G163" s="42"/>
+      <c r="H163" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="I163" s="55"/>
+      <c r="J163" s="41">
         <v>0.5</v>
       </c>
     </row>
     <row r="164" ht="18" spans="1:10">
-      <c r="A164" s="38">
+      <c r="A164" s="41">
         <v>2</v>
       </c>
-      <c r="B164" s="39" t="s">
+      <c r="B164" s="42" t="s">
         <v>103</v>
       </c>
-      <c r="C164" s="39"/>
-      <c r="D164" s="39"/>
-      <c r="E164" s="39"/>
-      <c r="F164" s="39"/>
-      <c r="G164" s="39"/>
-      <c r="H164" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="I164" s="53"/>
-      <c r="J164" s="38">
+      <c r="C164" s="42"/>
+      <c r="D164" s="42"/>
+      <c r="E164" s="42"/>
+      <c r="F164" s="42"/>
+      <c r="G164" s="42"/>
+      <c r="H164" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="I164" s="55"/>
+      <c r="J164" s="41">
         <v>0.5</v>
       </c>
     </row>
     <row r="165" ht="18" spans="1:10">
-      <c r="A165" s="38">
+      <c r="A165" s="41">
         <v>3</v>
       </c>
-      <c r="B165" s="39" t="s">
+      <c r="B165" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="C165" s="39"/>
-      <c r="D165" s="39"/>
-      <c r="E165" s="39"/>
-      <c r="F165" s="39"/>
-      <c r="G165" s="39"/>
-      <c r="H165" s="51">
+      <c r="C165" s="42"/>
+      <c r="D165" s="42"/>
+      <c r="E165" s="42"/>
+      <c r="F165" s="42"/>
+      <c r="G165" s="42"/>
+      <c r="H165" s="52">
         <v>1.5</v>
       </c>
-      <c r="I165" s="53"/>
-      <c r="J165" s="38">
+      <c r="I165" s="55"/>
+      <c r="J165" s="41">
         <v>1</v>
       </c>
     </row>
     <row r="166" ht="18" spans="1:10">
-      <c r="A166" s="38">
+      <c r="A166" s="41">
         <v>4</v>
       </c>
-      <c r="B166" s="39" t="s">
+      <c r="B166" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="C166" s="39"/>
-      <c r="D166" s="39"/>
-      <c r="E166" s="39"/>
-      <c r="F166" s="39"/>
-      <c r="G166" s="39"/>
-      <c r="H166" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="I166" s="53"/>
-      <c r="J166" s="38">
+      <c r="C166" s="42"/>
+      <c r="D166" s="42"/>
+      <c r="E166" s="42"/>
+      <c r="F166" s="42"/>
+      <c r="G166" s="42"/>
+      <c r="H166" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="I166" s="55"/>
+      <c r="J166" s="41">
         <v>0.5</v>
       </c>
     </row>
     <row r="167" ht="18" spans="1:10">
-      <c r="A167" s="38">
+      <c r="A167" s="41">
         <v>5</v>
       </c>
-      <c r="B167" s="39" t="s">
+      <c r="B167" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="C167" s="39"/>
-      <c r="D167" s="39"/>
-      <c r="E167" s="39"/>
-      <c r="F167" s="39"/>
-      <c r="G167" s="39"/>
-      <c r="H167" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="I167" s="53"/>
-      <c r="J167" s="38">
+      <c r="C167" s="42"/>
+      <c r="D167" s="42"/>
+      <c r="E167" s="42"/>
+      <c r="F167" s="42"/>
+      <c r="G167" s="42"/>
+      <c r="H167" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="I167" s="55"/>
+      <c r="J167" s="41">
         <v>0.5</v>
       </c>
     </row>
     <row r="168" ht="18" spans="1:10">
-      <c r="A168" s="38">
+      <c r="A168" s="41">
         <v>6</v>
       </c>
-      <c r="B168" s="39" t="s">
+      <c r="B168" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="C168" s="39"/>
-      <c r="D168" s="39"/>
-      <c r="E168" s="39"/>
-      <c r="F168" s="39"/>
-      <c r="G168" s="39"/>
-      <c r="H168" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="I168" s="53"/>
-      <c r="J168" s="38">
+      <c r="C168" s="42"/>
+      <c r="D168" s="42"/>
+      <c r="E168" s="42"/>
+      <c r="F168" s="42"/>
+      <c r="G168" s="42"/>
+      <c r="H168" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="I168" s="55"/>
+      <c r="J168" s="41">
         <v>0.5</v>
       </c>
     </row>
     <row r="169" ht="18" spans="1:10">
-      <c r="A169" s="38">
+      <c r="A169" s="41">
         <v>7</v>
       </c>
-      <c r="B169" s="39" t="s">
+      <c r="B169" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="C169" s="39"/>
-      <c r="D169" s="39"/>
-      <c r="E169" s="39"/>
-      <c r="F169" s="39"/>
-      <c r="G169" s="39"/>
-      <c r="H169" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="I169" s="53"/>
-      <c r="J169" s="38">
+      <c r="C169" s="42"/>
+      <c r="D169" s="42"/>
+      <c r="E169" s="42"/>
+      <c r="F169" s="42"/>
+      <c r="G169" s="42"/>
+      <c r="H169" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="I169" s="55"/>
+      <c r="J169" s="41">
         <v>0.5</v>
       </c>
     </row>
     <row r="170" ht="18" spans="1:10">
-      <c r="A170" s="38">
+      <c r="A170" s="41">
         <v>8</v>
       </c>
-      <c r="B170" s="39" t="s">
+      <c r="B170" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="C170" s="39"/>
-      <c r="D170" s="39"/>
-      <c r="E170" s="39"/>
-      <c r="F170" s="39"/>
-      <c r="G170" s="39"/>
-      <c r="H170" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="I170" s="53"/>
-      <c r="J170" s="38">
+      <c r="C170" s="42"/>
+      <c r="D170" s="42"/>
+      <c r="E170" s="42"/>
+      <c r="F170" s="42"/>
+      <c r="G170" s="42"/>
+      <c r="H170" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="I170" s="55"/>
+      <c r="J170" s="41">
         <v>0.5</v>
       </c>
     </row>
     <row r="171" ht="18" spans="1:10">
-      <c r="A171" s="38">
+      <c r="A171" s="41">
         <v>9</v>
       </c>
-      <c r="B171" s="39" t="s">
+      <c r="B171" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="C171" s="39"/>
-      <c r="D171" s="39"/>
-      <c r="E171" s="39"/>
-      <c r="F171" s="39"/>
-      <c r="G171" s="39"/>
-      <c r="H171" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="I171" s="53"/>
-      <c r="J171" s="38">
+      <c r="C171" s="42"/>
+      <c r="D171" s="42"/>
+      <c r="E171" s="42"/>
+      <c r="F171" s="42"/>
+      <c r="G171" s="42"/>
+      <c r="H171" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="I171" s="55"/>
+      <c r="J171" s="41">
         <v>0.5</v>
       </c>
     </row>
@@ -4813,202 +4832,202 @@
       </c>
     </row>
     <row r="173" ht="17.4" spans="1:10">
-      <c r="A173" s="36" t="s">
+      <c r="A173" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B173" s="37" t="s">
+      <c r="B173" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C173" s="37"/>
-      <c r="D173" s="37"/>
-      <c r="E173" s="37"/>
-      <c r="F173" s="37"/>
-      <c r="G173" s="37"/>
-      <c r="H173" s="52" t="s">
+      <c r="C173" s="40"/>
+      <c r="D173" s="40"/>
+      <c r="E173" s="40"/>
+      <c r="F173" s="40"/>
+      <c r="G173" s="40"/>
+      <c r="H173" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="I173" s="54"/>
-      <c r="J173" s="48" t="s">
+      <c r="I173" s="56"/>
+      <c r="J173" s="39" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="174" ht="18" spans="1:10">
-      <c r="A174" s="38">
-        <v>1</v>
-      </c>
-      <c r="B174" s="45" t="s">
+      <c r="A174" s="41">
+        <v>1</v>
+      </c>
+      <c r="B174" s="48" t="s">
         <v>105</v>
       </c>
-      <c r="C174" s="45"/>
-      <c r="D174" s="45"/>
-      <c r="E174" s="45"/>
-      <c r="F174" s="45"/>
-      <c r="G174" s="45"/>
-      <c r="H174" s="44">
-        <v>0.5</v>
-      </c>
-      <c r="I174" s="50"/>
-      <c r="J174" s="38">
+      <c r="C174" s="48"/>
+      <c r="D174" s="48"/>
+      <c r="E174" s="48"/>
+      <c r="F174" s="48"/>
+      <c r="G174" s="48"/>
+      <c r="H174" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="I174" s="51"/>
+      <c r="J174" s="41">
         <v>0.5</v>
       </c>
     </row>
     <row r="175" ht="18" spans="1:10">
-      <c r="A175" s="38">
+      <c r="A175" s="41">
         <v>2</v>
       </c>
-      <c r="B175" s="45" t="s">
+      <c r="B175" s="48" t="s">
         <v>106</v>
       </c>
-      <c r="C175" s="45"/>
-      <c r="D175" s="45"/>
-      <c r="E175" s="45"/>
-      <c r="F175" s="45"/>
-      <c r="G175" s="45"/>
-      <c r="H175" s="44">
-        <v>0.5</v>
-      </c>
-      <c r="I175" s="50"/>
-      <c r="J175" s="38">
+      <c r="C175" s="48"/>
+      <c r="D175" s="48"/>
+      <c r="E175" s="48"/>
+      <c r="F175" s="48"/>
+      <c r="G175" s="48"/>
+      <c r="H175" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="I175" s="51"/>
+      <c r="J175" s="41">
         <v>0.5</v>
       </c>
     </row>
     <row r="176" ht="18" spans="1:10">
-      <c r="A176" s="38">
+      <c r="A176" s="41">
         <v>3</v>
       </c>
-      <c r="B176" s="45" t="s">
+      <c r="B176" s="48" t="s">
         <v>73</v>
       </c>
-      <c r="C176" s="45"/>
-      <c r="D176" s="45"/>
-      <c r="E176" s="45"/>
-      <c r="F176" s="45"/>
-      <c r="G176" s="45"/>
-      <c r="H176" s="44">
-        <v>1</v>
-      </c>
-      <c r="I176" s="50"/>
-      <c r="J176" s="38">
+      <c r="C176" s="48"/>
+      <c r="D176" s="48"/>
+      <c r="E176" s="48"/>
+      <c r="F176" s="48"/>
+      <c r="G176" s="48"/>
+      <c r="H176" s="47">
+        <v>1</v>
+      </c>
+      <c r="I176" s="51"/>
+      <c r="J176" s="41">
         <v>1</v>
       </c>
     </row>
     <row r="177" ht="18" spans="1:10">
-      <c r="A177" s="38">
+      <c r="A177" s="41">
         <v>4</v>
       </c>
-      <c r="B177" s="45" t="s">
+      <c r="B177" s="48" t="s">
         <v>84</v>
       </c>
-      <c r="C177" s="45"/>
-      <c r="D177" s="45"/>
-      <c r="E177" s="45"/>
-      <c r="F177" s="45"/>
-      <c r="G177" s="45"/>
-      <c r="H177" s="44">
-        <v>1</v>
-      </c>
-      <c r="I177" s="50"/>
-      <c r="J177" s="38">
+      <c r="C177" s="48"/>
+      <c r="D177" s="48"/>
+      <c r="E177" s="48"/>
+      <c r="F177" s="48"/>
+      <c r="G177" s="48"/>
+      <c r="H177" s="47">
+        <v>1</v>
+      </c>
+      <c r="I177" s="51"/>
+      <c r="J177" s="41">
         <v>1</v>
       </c>
     </row>
     <row r="178" ht="18" spans="1:10">
-      <c r="A178" s="38">
+      <c r="A178" s="41">
         <v>5</v>
       </c>
-      <c r="B178" s="45" t="s">
+      <c r="B178" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="C178" s="45"/>
-      <c r="D178" s="45"/>
-      <c r="E178" s="45"/>
-      <c r="F178" s="45"/>
-      <c r="G178" s="45"/>
-      <c r="H178" s="44">
-        <v>0.5</v>
-      </c>
-      <c r="I178" s="50"/>
-      <c r="J178" s="38">
+      <c r="C178" s="48"/>
+      <c r="D178" s="48"/>
+      <c r="E178" s="48"/>
+      <c r="F178" s="48"/>
+      <c r="G178" s="48"/>
+      <c r="H178" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="I178" s="51"/>
+      <c r="J178" s="41">
         <v>0.5</v>
       </c>
     </row>
     <row r="179" ht="18" spans="1:10">
-      <c r="A179" s="38">
+      <c r="A179" s="41">
         <v>6</v>
       </c>
-      <c r="B179" s="45" t="s">
+      <c r="B179" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="C179" s="45"/>
-      <c r="D179" s="45"/>
-      <c r="E179" s="45"/>
-      <c r="F179" s="45"/>
-      <c r="G179" s="45"/>
-      <c r="H179" s="44">
-        <v>0.5</v>
-      </c>
-      <c r="I179" s="50"/>
-      <c r="J179" s="38">
+      <c r="C179" s="48"/>
+      <c r="D179" s="48"/>
+      <c r="E179" s="48"/>
+      <c r="F179" s="48"/>
+      <c r="G179" s="48"/>
+      <c r="H179" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="I179" s="51"/>
+      <c r="J179" s="41">
         <v>0.5</v>
       </c>
     </row>
     <row r="180" ht="18" spans="1:10">
-      <c r="A180" s="38">
+      <c r="A180" s="41">
         <v>7</v>
       </c>
-      <c r="B180" s="45" t="s">
+      <c r="B180" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="C180" s="45"/>
-      <c r="D180" s="45"/>
-      <c r="E180" s="45"/>
-      <c r="F180" s="45"/>
-      <c r="G180" s="45"/>
-      <c r="H180" s="44">
-        <v>0.5</v>
-      </c>
-      <c r="I180" s="50"/>
-      <c r="J180" s="38">
+      <c r="C180" s="48"/>
+      <c r="D180" s="48"/>
+      <c r="E180" s="48"/>
+      <c r="F180" s="48"/>
+      <c r="G180" s="48"/>
+      <c r="H180" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="I180" s="51"/>
+      <c r="J180" s="41">
         <v>0.5</v>
       </c>
     </row>
     <row r="181" ht="18" spans="1:10">
-      <c r="A181" s="38">
+      <c r="A181" s="41">
         <v>8</v>
       </c>
-      <c r="B181" s="45" t="s">
+      <c r="B181" s="48" t="s">
         <v>78</v>
       </c>
-      <c r="C181" s="45"/>
-      <c r="D181" s="45"/>
-      <c r="E181" s="45"/>
-      <c r="F181" s="45"/>
-      <c r="G181" s="45"/>
-      <c r="H181" s="44">
-        <v>0.5</v>
-      </c>
-      <c r="I181" s="50"/>
-      <c r="J181" s="38">
+      <c r="C181" s="48"/>
+      <c r="D181" s="48"/>
+      <c r="E181" s="48"/>
+      <c r="F181" s="48"/>
+      <c r="G181" s="48"/>
+      <c r="H181" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="I181" s="51"/>
+      <c r="J181" s="41">
         <v>0.5</v>
       </c>
     </row>
     <row r="182" ht="18" spans="1:10">
-      <c r="A182" s="38">
+      <c r="A182" s="41">
         <v>9</v>
       </c>
-      <c r="B182" s="45" t="s">
+      <c r="B182" s="48" t="s">
         <v>107</v>
       </c>
-      <c r="C182" s="45"/>
-      <c r="D182" s="45"/>
-      <c r="E182" s="45"/>
-      <c r="F182" s="45"/>
-      <c r="G182" s="45"/>
-      <c r="H182" s="44">
-        <v>0.5</v>
-      </c>
-      <c r="I182" s="50"/>
-      <c r="J182" s="38">
+      <c r="C182" s="48"/>
+      <c r="D182" s="48"/>
+      <c r="E182" s="48"/>
+      <c r="F182" s="48"/>
+      <c r="G182" s="48"/>
+      <c r="H182" s="47">
+        <v>0.5</v>
+      </c>
+      <c r="I182" s="51"/>
+      <c r="J182" s="41">
         <v>0.5</v>
       </c>
     </row>
@@ -5018,202 +5037,202 @@
       </c>
     </row>
     <row r="184" ht="17.4" spans="1:10">
-      <c r="A184" s="36" t="s">
+      <c r="A184" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B184" s="37" t="s">
+      <c r="B184" s="40" t="s">
         <v>11</v>
       </c>
-      <c r="C184" s="37"/>
-      <c r="D184" s="37"/>
-      <c r="E184" s="37"/>
-      <c r="F184" s="37"/>
-      <c r="G184" s="37"/>
-      <c r="H184" s="36" t="s">
+      <c r="C184" s="40"/>
+      <c r="D184" s="40"/>
+      <c r="E184" s="40"/>
+      <c r="F184" s="40"/>
+      <c r="G184" s="40"/>
+      <c r="H184" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="I184" s="36"/>
-      <c r="J184" s="48" t="s">
+      <c r="I184" s="39"/>
+      <c r="J184" s="39" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="185" ht="18" spans="1:10">
-      <c r="A185" s="38">
-        <v>1</v>
-      </c>
-      <c r="B185" s="39" t="s">
+      <c r="A185" s="41">
+        <v>1</v>
+      </c>
+      <c r="B185" s="42" t="s">
         <v>109</v>
       </c>
-      <c r="C185" s="39"/>
-      <c r="D185" s="39"/>
-      <c r="E185" s="39"/>
-      <c r="F185" s="39"/>
-      <c r="G185" s="39"/>
-      <c r="H185" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="I185" s="38"/>
-      <c r="J185" s="38">
+      <c r="C185" s="42"/>
+      <c r="D185" s="42"/>
+      <c r="E185" s="42"/>
+      <c r="F185" s="42"/>
+      <c r="G185" s="42"/>
+      <c r="H185" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="I185" s="41"/>
+      <c r="J185" s="41">
         <v>0.5</v>
       </c>
     </row>
     <row r="186" ht="18" spans="1:10">
-      <c r="A186" s="38">
+      <c r="A186" s="41">
         <v>2</v>
       </c>
-      <c r="B186" s="39" t="s">
+      <c r="B186" s="42" t="s">
         <v>110</v>
       </c>
-      <c r="C186" s="39"/>
-      <c r="D186" s="39"/>
-      <c r="E186" s="39"/>
-      <c r="F186" s="39"/>
-      <c r="G186" s="39"/>
-      <c r="H186" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="I186" s="38"/>
-      <c r="J186" s="38">
+      <c r="C186" s="42"/>
+      <c r="D186" s="42"/>
+      <c r="E186" s="42"/>
+      <c r="F186" s="42"/>
+      <c r="G186" s="42"/>
+      <c r="H186" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="I186" s="41"/>
+      <c r="J186" s="41">
         <v>0.5</v>
       </c>
     </row>
     <row r="187" ht="18" spans="1:10">
-      <c r="A187" s="38">
+      <c r="A187" s="41">
         <v>3</v>
       </c>
-      <c r="B187" s="39" t="s">
+      <c r="B187" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="C187" s="39"/>
-      <c r="D187" s="39"/>
-      <c r="E187" s="39"/>
-      <c r="F187" s="39"/>
-      <c r="G187" s="39"/>
-      <c r="H187" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="I187" s="38"/>
-      <c r="J187" s="38">
+      <c r="C187" s="42"/>
+      <c r="D187" s="42"/>
+      <c r="E187" s="42"/>
+      <c r="F187" s="42"/>
+      <c r="G187" s="42"/>
+      <c r="H187" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="I187" s="41"/>
+      <c r="J187" s="41">
         <v>0.5</v>
       </c>
     </row>
     <row r="188" ht="18" spans="1:10">
-      <c r="A188" s="38">
+      <c r="A188" s="41">
         <v>4</v>
       </c>
-      <c r="B188" s="39" t="s">
+      <c r="B188" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="C188" s="39"/>
-      <c r="D188" s="39"/>
-      <c r="E188" s="39"/>
-      <c r="F188" s="39"/>
-      <c r="G188" s="39"/>
-      <c r="H188" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="I188" s="38"/>
-      <c r="J188" s="38">
+      <c r="C188" s="42"/>
+      <c r="D188" s="42"/>
+      <c r="E188" s="42"/>
+      <c r="F188" s="42"/>
+      <c r="G188" s="42"/>
+      <c r="H188" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="I188" s="41"/>
+      <c r="J188" s="41">
         <v>0.5</v>
       </c>
     </row>
     <row r="189" ht="18" spans="1:10">
-      <c r="A189" s="38">
+      <c r="A189" s="41">
         <v>5</v>
       </c>
-      <c r="B189" s="39" t="s">
+      <c r="B189" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="C189" s="39"/>
-      <c r="D189" s="39"/>
-      <c r="E189" s="39"/>
-      <c r="F189" s="39"/>
-      <c r="G189" s="39"/>
-      <c r="H189" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="I189" s="38"/>
-      <c r="J189" s="38">
+      <c r="C189" s="42"/>
+      <c r="D189" s="42"/>
+      <c r="E189" s="42"/>
+      <c r="F189" s="42"/>
+      <c r="G189" s="42"/>
+      <c r="H189" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="I189" s="41"/>
+      <c r="J189" s="41">
         <v>0.5</v>
       </c>
     </row>
     <row r="190" ht="18" spans="1:10">
-      <c r="A190" s="38">
+      <c r="A190" s="41">
         <v>6</v>
       </c>
-      <c r="B190" s="39" t="s">
+      <c r="B190" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="C190" s="39"/>
-      <c r="D190" s="39"/>
-      <c r="E190" s="39"/>
-      <c r="F190" s="39"/>
-      <c r="G190" s="39"/>
-      <c r="H190" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="I190" s="38"/>
-      <c r="J190" s="38">
+      <c r="C190" s="42"/>
+      <c r="D190" s="42"/>
+      <c r="E190" s="42"/>
+      <c r="F190" s="42"/>
+      <c r="G190" s="42"/>
+      <c r="H190" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="I190" s="41"/>
+      <c r="J190" s="41">
         <v>0.5</v>
       </c>
     </row>
     <row r="191" ht="18" spans="1:10">
-      <c r="A191" s="38">
+      <c r="A191" s="41">
         <v>7</v>
       </c>
-      <c r="B191" s="39" t="s">
+      <c r="B191" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="C191" s="39"/>
-      <c r="D191" s="39"/>
-      <c r="E191" s="39"/>
-      <c r="F191" s="39"/>
-      <c r="G191" s="39"/>
-      <c r="H191" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="I191" s="38"/>
-      <c r="J191" s="38">
+      <c r="C191" s="42"/>
+      <c r="D191" s="42"/>
+      <c r="E191" s="42"/>
+      <c r="F191" s="42"/>
+      <c r="G191" s="42"/>
+      <c r="H191" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="I191" s="41"/>
+      <c r="J191" s="41">
         <v>0.5</v>
       </c>
     </row>
     <row r="192" ht="18" spans="1:10">
-      <c r="A192" s="38">
+      <c r="A192" s="41">
         <v>8</v>
       </c>
-      <c r="B192" s="39" t="s">
+      <c r="B192" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="C192" s="39"/>
-      <c r="D192" s="39"/>
-      <c r="E192" s="39"/>
-      <c r="F192" s="39"/>
-      <c r="G192" s="39"/>
-      <c r="H192" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="I192" s="38"/>
-      <c r="J192" s="38">
+      <c r="C192" s="42"/>
+      <c r="D192" s="42"/>
+      <c r="E192" s="42"/>
+      <c r="F192" s="42"/>
+      <c r="G192" s="42"/>
+      <c r="H192" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="I192" s="41"/>
+      <c r="J192" s="41">
         <v>0.5</v>
       </c>
     </row>
     <row r="193" ht="18" spans="1:10">
-      <c r="A193" s="38">
+      <c r="A193" s="41">
         <v>9</v>
       </c>
-      <c r="B193" s="39" t="s">
+      <c r="B193" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="C193" s="39"/>
-      <c r="D193" s="39"/>
-      <c r="E193" s="39"/>
-      <c r="F193" s="39"/>
-      <c r="G193" s="39"/>
-      <c r="H193" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="I193" s="38"/>
-      <c r="J193" s="38">
+      <c r="C193" s="42"/>
+      <c r="D193" s="42"/>
+      <c r="E193" s="42"/>
+      <c r="F193" s="42"/>
+      <c r="G193" s="42"/>
+      <c r="H193" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="I193" s="41"/>
+      <c r="J193" s="41">
         <v>0.5</v>
       </c>
     </row>
@@ -5223,199 +5242,203 @@
       </c>
     </row>
     <row r="195" ht="17.4" spans="1:10">
-      <c r="A195" s="55" t="s">
+      <c r="A195" s="57" t="s">
         <v>10</v>
       </c>
-      <c r="B195" s="56" t="s">
+      <c r="B195" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="C195" s="56"/>
-      <c r="D195" s="56"/>
-      <c r="E195" s="56"/>
-      <c r="F195" s="56"/>
-      <c r="G195" s="56"/>
-      <c r="H195" s="55" t="s">
+      <c r="C195" s="58"/>
+      <c r="D195" s="58"/>
+      <c r="E195" s="58"/>
+      <c r="F195" s="58"/>
+      <c r="G195" s="58"/>
+      <c r="H195" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="I195" s="55"/>
-      <c r="J195" s="66" t="s">
+      <c r="I195" s="57"/>
+      <c r="J195" s="57" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="196" ht="18" spans="1:10">
-      <c r="A196" s="38">
-        <v>1</v>
-      </c>
-      <c r="B196" s="39" t="s">
+      <c r="A196" s="41">
+        <v>1</v>
+      </c>
+      <c r="B196" s="42" t="s">
         <v>112</v>
       </c>
-      <c r="C196" s="39"/>
-      <c r="D196" s="39"/>
-      <c r="E196" s="39"/>
-      <c r="F196" s="39"/>
-      <c r="G196" s="39"/>
-      <c r="H196" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="I196" s="38"/>
-      <c r="J196" s="38">
+      <c r="C196" s="42"/>
+      <c r="D196" s="42"/>
+      <c r="E196" s="42"/>
+      <c r="F196" s="42"/>
+      <c r="G196" s="42"/>
+      <c r="H196" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="I196" s="41"/>
+      <c r="J196" s="41">
         <v>0.5</v>
       </c>
     </row>
     <row r="197" ht="18" spans="1:10">
-      <c r="A197" s="38">
+      <c r="A197" s="41">
         <v>2</v>
       </c>
-      <c r="B197" s="39" t="s">
+      <c r="B197" s="42" t="s">
         <v>113</v>
       </c>
-      <c r="C197" s="39"/>
-      <c r="D197" s="39"/>
-      <c r="E197" s="39"/>
-      <c r="F197" s="39"/>
-      <c r="G197" s="39"/>
-      <c r="H197" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="I197" s="38"/>
-      <c r="J197" s="38">
+      <c r="C197" s="42"/>
+      <c r="D197" s="42"/>
+      <c r="E197" s="42"/>
+      <c r="F197" s="42"/>
+      <c r="G197" s="42"/>
+      <c r="H197" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="I197" s="41"/>
+      <c r="J197" s="41">
         <v>0.5</v>
       </c>
     </row>
     <row r="198" ht="18" spans="1:10">
-      <c r="A198" s="38">
+      <c r="A198" s="41">
         <v>3</v>
       </c>
-      <c r="B198" s="39" t="s">
+      <c r="B198" s="42" t="s">
         <v>73</v>
       </c>
-      <c r="C198" s="39"/>
-      <c r="D198" s="39"/>
-      <c r="E198" s="39"/>
-      <c r="F198" s="39"/>
-      <c r="G198" s="39"/>
-      <c r="H198" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="I198" s="38"/>
-      <c r="J198" s="38"/>
+      <c r="C198" s="42"/>
+      <c r="D198" s="42"/>
+      <c r="E198" s="42"/>
+      <c r="F198" s="42"/>
+      <c r="G198" s="42"/>
+      <c r="H198" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="I198" s="41"/>
+      <c r="J198" s="41">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="199" ht="18" spans="1:10">
-      <c r="A199" s="38">
+      <c r="A199" s="41">
         <v>4</v>
       </c>
-      <c r="B199" s="39" t="s">
+      <c r="B199" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="C199" s="39"/>
-      <c r="D199" s="39"/>
-      <c r="E199" s="39"/>
-      <c r="F199" s="39"/>
-      <c r="G199" s="39"/>
-      <c r="H199" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="I199" s="38"/>
-      <c r="J199" s="38"/>
+      <c r="C199" s="42"/>
+      <c r="D199" s="42"/>
+      <c r="E199" s="42"/>
+      <c r="F199" s="42"/>
+      <c r="G199" s="42"/>
+      <c r="H199" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="I199" s="41"/>
+      <c r="J199" s="41">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="200" ht="18" spans="1:10">
-      <c r="A200" s="38">
+      <c r="A200" s="41">
         <v>5</v>
       </c>
-      <c r="B200" s="39" t="s">
+      <c r="B200" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="C200" s="39"/>
-      <c r="D200" s="39"/>
-      <c r="E200" s="39"/>
-      <c r="F200" s="39"/>
-      <c r="G200" s="39"/>
-      <c r="H200" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="I200" s="38"/>
-      <c r="J200" s="38">
+      <c r="C200" s="42"/>
+      <c r="D200" s="42"/>
+      <c r="E200" s="42"/>
+      <c r="F200" s="42"/>
+      <c r="G200" s="42"/>
+      <c r="H200" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="I200" s="41"/>
+      <c r="J200" s="41">
         <v>0.5</v>
       </c>
     </row>
     <row r="201" ht="18" spans="1:10">
-      <c r="A201" s="38">
+      <c r="A201" s="41">
         <v>6</v>
       </c>
-      <c r="B201" s="39" t="s">
+      <c r="B201" s="42" t="s">
         <v>76</v>
       </c>
-      <c r="C201" s="39"/>
-      <c r="D201" s="39"/>
-      <c r="E201" s="39"/>
-      <c r="F201" s="39"/>
-      <c r="G201" s="39"/>
-      <c r="H201" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="I201" s="38"/>
-      <c r="J201" s="38">
+      <c r="C201" s="42"/>
+      <c r="D201" s="42"/>
+      <c r="E201" s="42"/>
+      <c r="F201" s="42"/>
+      <c r="G201" s="42"/>
+      <c r="H201" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="I201" s="41"/>
+      <c r="J201" s="41">
         <v>0.5</v>
       </c>
     </row>
     <row r="202" ht="18" spans="1:10">
-      <c r="A202" s="38">
+      <c r="A202" s="41">
         <v>7</v>
       </c>
-      <c r="B202" s="39" t="s">
+      <c r="B202" s="42" t="s">
         <v>77</v>
       </c>
-      <c r="C202" s="39"/>
-      <c r="D202" s="39"/>
-      <c r="E202" s="39"/>
-      <c r="F202" s="39"/>
-      <c r="G202" s="39"/>
-      <c r="H202" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="I202" s="38"/>
-      <c r="J202" s="38">
+      <c r="C202" s="42"/>
+      <c r="D202" s="42"/>
+      <c r="E202" s="42"/>
+      <c r="F202" s="42"/>
+      <c r="G202" s="42"/>
+      <c r="H202" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="I202" s="41"/>
+      <c r="J202" s="41">
         <v>0.5</v>
       </c>
     </row>
     <row r="203" ht="18" spans="1:10">
-      <c r="A203" s="38">
+      <c r="A203" s="41">
         <v>8</v>
       </c>
-      <c r="B203" s="39" t="s">
+      <c r="B203" s="42" t="s">
         <v>78</v>
       </c>
-      <c r="C203" s="39"/>
-      <c r="D203" s="39"/>
-      <c r="E203" s="39"/>
-      <c r="F203" s="39"/>
-      <c r="G203" s="39"/>
-      <c r="H203" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="I203" s="38"/>
-      <c r="J203" s="38">
+      <c r="C203" s="42"/>
+      <c r="D203" s="42"/>
+      <c r="E203" s="42"/>
+      <c r="F203" s="42"/>
+      <c r="G203" s="42"/>
+      <c r="H203" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="I203" s="41"/>
+      <c r="J203" s="41">
         <v>0.5</v>
       </c>
     </row>
     <row r="204" ht="18" spans="1:10">
-      <c r="A204" s="38">
+      <c r="A204" s="41">
         <v>9</v>
       </c>
-      <c r="B204" s="39" t="s">
+      <c r="B204" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="C204" s="39"/>
-      <c r="D204" s="39"/>
-      <c r="E204" s="39"/>
-      <c r="F204" s="39"/>
-      <c r="G204" s="39"/>
-      <c r="H204" s="38">
-        <v>0.5</v>
-      </c>
-      <c r="I204" s="38"/>
-      <c r="J204" s="38">
-        <v>0</v>
+      <c r="C204" s="42"/>
+      <c r="D204" s="42"/>
+      <c r="E204" s="42"/>
+      <c r="F204" s="42"/>
+      <c r="G204" s="42"/>
+      <c r="H204" s="41">
+        <v>0.5</v>
+      </c>
+      <c r="I204" s="41"/>
+      <c r="J204" s="41">
+        <v>0.5</v>
       </c>
     </row>
     <row r="205" ht="17.4" spans="1:1">
@@ -5424,175 +5447,187 @@
       </c>
     </row>
     <row r="206" ht="17.4" spans="1:10">
-      <c r="A206" s="36" t="s">
+      <c r="A206" s="39" t="s">
         <v>10</v>
       </c>
-      <c r="B206" s="57" t="s">
+      <c r="B206" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="C206" s="58"/>
-      <c r="D206" s="58"/>
-      <c r="E206" s="58"/>
-      <c r="F206" s="58"/>
-      <c r="G206" s="59"/>
-      <c r="H206" s="52" t="s">
+      <c r="C206" s="60"/>
+      <c r="D206" s="60"/>
+      <c r="E206" s="60"/>
+      <c r="F206" s="60"/>
+      <c r="G206" s="61"/>
+      <c r="H206" s="54" t="s">
         <v>12</v>
       </c>
-      <c r="I206" s="54"/>
-      <c r="J206" s="48" t="s">
+      <c r="I206" s="56"/>
+      <c r="J206" s="39" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="207" ht="18" spans="1:10">
-      <c r="A207" s="38">
-        <v>1</v>
-      </c>
-      <c r="B207" s="60" t="s">
+      <c r="A207" s="41">
+        <v>1</v>
+      </c>
+      <c r="B207" s="62" t="s">
         <v>115</v>
       </c>
-      <c r="C207" s="61"/>
-      <c r="D207" s="61"/>
-      <c r="E207" s="61"/>
-      <c r="F207" s="61"/>
-      <c r="G207" s="62"/>
-      <c r="H207" s="63">
-        <v>0.5</v>
-      </c>
-      <c r="I207" s="67"/>
-      <c r="J207" s="38">
+      <c r="C207" s="63"/>
+      <c r="D207" s="63"/>
+      <c r="E207" s="63"/>
+      <c r="F207" s="63"/>
+      <c r="G207" s="64"/>
+      <c r="H207" s="65">
+        <v>0.5</v>
+      </c>
+      <c r="I207" s="68"/>
+      <c r="J207" s="41">
         <v>0.5</v>
       </c>
     </row>
     <row r="208" ht="18" spans="1:10">
-      <c r="A208" s="38">
+      <c r="A208" s="41">
         <v>2</v>
       </c>
-      <c r="B208" s="60" t="s">
+      <c r="B208" s="62" t="s">
         <v>116</v>
       </c>
-      <c r="C208" s="61"/>
-      <c r="D208" s="61"/>
-      <c r="E208" s="61"/>
-      <c r="F208" s="61"/>
-      <c r="G208" s="62"/>
-      <c r="H208" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="I208" s="53"/>
-      <c r="J208" s="38">
+      <c r="C208" s="63"/>
+      <c r="D208" s="63"/>
+      <c r="E208" s="63"/>
+      <c r="F208" s="63"/>
+      <c r="G208" s="64"/>
+      <c r="H208" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="I208" s="55"/>
+      <c r="J208" s="41">
         <v>0.5</v>
       </c>
     </row>
     <row r="209" ht="18" spans="1:10">
-      <c r="A209" s="38">
+      <c r="A209" s="41">
         <v>3</v>
       </c>
-      <c r="B209" s="60" t="s">
+      <c r="B209" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="C209" s="61"/>
-      <c r="D209" s="61"/>
-      <c r="E209" s="61"/>
-      <c r="F209" s="61"/>
-      <c r="G209" s="62"/>
-      <c r="H209" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="I209" s="53"/>
-      <c r="J209" s="38"/>
+      <c r="C209" s="63"/>
+      <c r="D209" s="63"/>
+      <c r="E209" s="63"/>
+      <c r="F209" s="63"/>
+      <c r="G209" s="64"/>
+      <c r="H209" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="I209" s="55"/>
+      <c r="J209" s="41">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="210" ht="18" spans="1:10">
-      <c r="A210" s="38">
+      <c r="A210" s="41">
         <v>4</v>
       </c>
-      <c r="B210" s="60" t="s">
+      <c r="B210" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="C210" s="61"/>
-      <c r="D210" s="61"/>
-      <c r="E210" s="61"/>
-      <c r="F210" s="61"/>
-      <c r="G210" s="62"/>
-      <c r="H210" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="I210" s="53"/>
-      <c r="J210" s="38"/>
+      <c r="C210" s="63"/>
+      <c r="D210" s="63"/>
+      <c r="E210" s="63"/>
+      <c r="F210" s="63"/>
+      <c r="G210" s="64"/>
+      <c r="H210" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="I210" s="55"/>
+      <c r="J210" s="41">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="211" ht="18" spans="1:10">
-      <c r="A211" s="38">
+      <c r="A211" s="41">
         <v>5</v>
       </c>
-      <c r="B211" s="60" t="s">
+      <c r="B211" s="62" t="s">
         <v>76</v>
       </c>
-      <c r="C211" s="61"/>
-      <c r="D211" s="61"/>
-      <c r="E211" s="61"/>
-      <c r="F211" s="61"/>
-      <c r="G211" s="62"/>
-      <c r="H211" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="I211" s="53"/>
-      <c r="J211" s="38"/>
+      <c r="C211" s="63"/>
+      <c r="D211" s="63"/>
+      <c r="E211" s="63"/>
+      <c r="F211" s="63"/>
+      <c r="G211" s="64"/>
+      <c r="H211" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="I211" s="55"/>
+      <c r="J211" s="41">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="212" ht="18" spans="1:10">
-      <c r="A212" s="38">
+      <c r="A212" s="41">
         <v>6</v>
       </c>
-      <c r="B212" s="60" t="s">
+      <c r="B212" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="C212" s="61"/>
-      <c r="D212" s="61"/>
-      <c r="E212" s="61"/>
-      <c r="F212" s="61"/>
-      <c r="G212" s="62"/>
-      <c r="H212" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="I212" s="53"/>
-      <c r="J212" s="38"/>
+      <c r="C212" s="63"/>
+      <c r="D212" s="63"/>
+      <c r="E212" s="63"/>
+      <c r="F212" s="63"/>
+      <c r="G212" s="64"/>
+      <c r="H212" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="I212" s="55"/>
+      <c r="J212" s="41">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="213" ht="18" spans="1:10">
-      <c r="A213" s="38">
+      <c r="A213" s="41">
         <v>7</v>
       </c>
-      <c r="B213" s="60" t="s">
+      <c r="B213" s="62" t="s">
         <v>78</v>
       </c>
-      <c r="C213" s="61"/>
-      <c r="D213" s="61"/>
-      <c r="E213" s="61"/>
-      <c r="F213" s="61"/>
-      <c r="G213" s="62"/>
-      <c r="H213" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="I213" s="53"/>
-      <c r="J213" s="38"/>
+      <c r="C213" s="63"/>
+      <c r="D213" s="63"/>
+      <c r="E213" s="63"/>
+      <c r="F213" s="63"/>
+      <c r="G213" s="64"/>
+      <c r="H213" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="I213" s="55"/>
+      <c r="J213" s="41">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="214" ht="18" spans="1:10">
-      <c r="A214" s="38">
+      <c r="A214" s="41">
         <v>8</v>
       </c>
-      <c r="B214" s="60" t="s">
+      <c r="B214" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="C214" s="61"/>
-      <c r="D214" s="61"/>
-      <c r="E214" s="61"/>
-      <c r="F214" s="61"/>
-      <c r="G214" s="62"/>
-      <c r="H214" s="51">
-        <v>0.5</v>
-      </c>
-      <c r="I214" s="53"/>
-      <c r="J214" s="38"/>
+      <c r="C214" s="63"/>
+      <c r="D214" s="63"/>
+      <c r="E214" s="63"/>
+      <c r="F214" s="63"/>
+      <c r="G214" s="64"/>
+      <c r="H214" s="52">
+        <v>0.5</v>
+      </c>
+      <c r="I214" s="55"/>
+      <c r="J214" s="41">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="216" ht="52.8" customHeight="1" spans="1:10">
-      <c r="A216" s="64" t="s">
+      <c r="A216" s="66" t="s">
         <v>118</v>
       </c>
       <c r="B216" s="5"/>
@@ -5600,20 +5635,20 @@
       <c r="D216" s="5"/>
       <c r="E216" s="6"/>
       <c r="F216" s="6"/>
-      <c r="G216" s="64" t="s">
+      <c r="G216" s="66" t="s">
         <v>119</v>
       </c>
       <c r="H216" s="5"/>
       <c r="I216" s="5"/>
-      <c r="J216" s="5"/>
+      <c r="J216" s="28"/>
     </row>
     <row r="220" spans="7:10">
-      <c r="G220" s="65" t="s">
+      <c r="G220" s="67" t="s">
         <v>120</v>
       </c>
-      <c r="H220" s="65"/>
-      <c r="I220" s="65"/>
-      <c r="J220" s="65"/>
+      <c r="H220" s="67"/>
+      <c r="I220" s="67"/>
+      <c r="J220" s="69"/>
     </row>
   </sheetData>
   <mergeCells count="368">
